--- a/static/uploads/journals.xlsx
+++ b/static/uploads/journals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\array-research\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31079DD-44AB-4239-AC74-25D0A7580526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FFAAB0-0CEF-4B63-9259-078B0D97D8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3038,66 +3038,6 @@
     <t>https://www.ijmra.us/itjournal.php</t>
   </si>
   <si>
-    <t>www.iajlb.com</t>
-  </si>
-  <si>
-    <t>www. iajme.org</t>
-  </si>
-  <si>
-    <t>www. iajpb.com</t>
-  </si>
-  <si>
-    <t>www.iajavs.com</t>
-  </si>
-  <si>
-    <t>www.ijhrmob.com</t>
-  </si>
-  <si>
-    <t>www.ijmert.net</t>
-  </si>
-  <si>
-    <t>www.jst.org.in</t>
-  </si>
-  <si>
-    <t>www.ijmrr.com</t>
-  </si>
-  <si>
-    <t>www.ijesr.org</t>
-  </si>
-  <si>
-    <t>www.ijaast.com</t>
-  </si>
-  <si>
-    <t>www.ijitce.com</t>
-  </si>
-  <si>
-    <t>www.ijlbps.org</t>
-  </si>
-  <si>
-    <t>www.ijerst.com</t>
-  </si>
-  <si>
-    <t>www.ijmm.net</t>
-  </si>
-  <si>
-    <t>www.ijmrbs.org</t>
-  </si>
-  <si>
-    <t>www.traditionalmedicinejournals.com</t>
-  </si>
-  <si>
-    <t>www.trpubonline.com</t>
-  </si>
-  <si>
-    <t>www.ijpsl.co.in</t>
-  </si>
-  <si>
-    <t>www.jcsonline.in</t>
-  </si>
-  <si>
-    <t>www.jcsjournal.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> http://www.exceljournals.org.in</t>
   </si>
   <si>
@@ -3360,13 +3300,73 @@
   </si>
   <si>
     <t>https://jier.org/index.php/journal</t>
+  </si>
+  <si>
+    <t>http://www.iajlb.com</t>
+  </si>
+  <si>
+    <t>http://www.iajavs.com</t>
+  </si>
+  <si>
+    <t>http://www.iajpb.com</t>
+  </si>
+  <si>
+    <t>http://www.iajme.org</t>
+  </si>
+  <si>
+    <t>http://www.ijhrmob.com</t>
+  </si>
+  <si>
+    <t>http://www.ijmert.net</t>
+  </si>
+  <si>
+    <t>http://www.jst.org.in</t>
+  </si>
+  <si>
+    <t>http://www.ijmrr.com</t>
+  </si>
+  <si>
+    <t>http://www.ijesr.org</t>
+  </si>
+  <si>
+    <t>http://www.ijaast.com</t>
+  </si>
+  <si>
+    <t>http://www.ijitce.com</t>
+  </si>
+  <si>
+    <t>http://www.ijlbps.org</t>
+  </si>
+  <si>
+    <t>http://www.ijerst.com</t>
+  </si>
+  <si>
+    <t>http://www.ijmm.net</t>
+  </si>
+  <si>
+    <t>http://www.ijmrbs.org</t>
+  </si>
+  <si>
+    <t>http://www.traditionalmedicinejournals.com</t>
+  </si>
+  <si>
+    <t>http://www.trpubonline.com</t>
+  </si>
+  <si>
+    <t>http://www.ijpsl.co.in</t>
+  </si>
+  <si>
+    <t>http://www.jcsonline.in</t>
+  </si>
+  <si>
+    <t>http://www.jcsjournal.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="102">
+  <fonts count="101">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3931,12 +3931,6 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
@@ -4042,9 +4036,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4516,15 +4510,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="101" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="100" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -5024,7 +5017,7 @@
     <row r="23" spans="1:7" ht="17.399999999999999">
       <c r="A23" s="20"/>
       <c r="B23" s="30" t="s">
-        <v>1012</v>
+        <v>992</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5143,7 +5136,7 @@
     <row r="34" spans="1:7" ht="17.399999999999999">
       <c r="A34" s="20"/>
       <c r="B34" s="16" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5256,7 +5249,7 @@
     <row r="44" spans="1:7" ht="17.399999999999999">
       <c r="A44" s="18"/>
       <c r="B44" s="16" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5375,7 +5368,7 @@
     <row r="55" spans="1:7" ht="17.399999999999999">
       <c r="A55" s="18"/>
       <c r="B55" s="16" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -5471,7 +5464,7 @@
     <row r="64" spans="1:7" ht="17.399999999999999">
       <c r="A64" s="18"/>
       <c r="B64" s="16" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -5576,7 +5569,7 @@
     <row r="74" spans="1:7" ht="17.399999999999999">
       <c r="A74" s="18"/>
       <c r="B74" s="16" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -5680,7 +5673,7 @@
     <row r="84" spans="1:7" ht="17.399999999999999">
       <c r="A84" s="35"/>
       <c r="B84" s="14" t="s">
-        <v>1014</v>
+        <v>994</v>
       </c>
       <c r="C84" s="40"/>
       <c r="D84" s="1"/>
@@ -5788,7 +5781,7 @@
     <row r="94" spans="1:7" ht="17.399999999999999">
       <c r="A94" s="18"/>
       <c r="B94" s="14" t="s">
-        <v>1015</v>
+        <v>995</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -5883,7 +5876,7 @@
     <row r="106" spans="1:7" ht="17.399999999999999">
       <c r="A106" s="18"/>
       <c r="B106" s="14" t="s">
-        <v>1016</v>
+        <v>996</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -6011,7 +6004,7 @@
     <row r="118" spans="1:7" ht="17.399999999999999">
       <c r="A118" s="18"/>
       <c r="B118" s="14" t="s">
-        <v>1017</v>
+        <v>997</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -6130,7 +6123,7 @@
     <row r="129" spans="1:7" ht="17.399999999999999">
       <c r="A129" s="18"/>
       <c r="B129" s="14" t="s">
-        <v>1018</v>
+        <v>998</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -6249,7 +6242,7 @@
     <row r="140" spans="1:7" ht="17.399999999999999">
       <c r="A140" s="18"/>
       <c r="B140" s="14" t="s">
-        <v>1018</v>
+        <v>998</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -6958,7 +6951,7 @@
     <row r="206" spans="1:7" ht="15.75" customHeight="1">
       <c r="A206" s="68"/>
       <c r="B206" s="69" t="s">
-        <v>1018</v>
+        <v>998</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="62"/>
@@ -7055,7 +7048,7 @@
     <row r="215" spans="1:7" ht="17.399999999999999">
       <c r="A215" s="9"/>
       <c r="B215" s="14" t="s">
-        <v>1015</v>
+        <v>995</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -7108,7 +7101,7 @@
     <row r="220" spans="1:7" ht="17.399999999999999">
       <c r="A220" s="35"/>
       <c r="B220" s="95" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -7227,7 +7220,7 @@
     <row r="231" spans="1:7" ht="17.399999999999999">
       <c r="A231" s="35"/>
       <c r="B231" s="95" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -7335,7 +7328,7 @@
     <row r="241" spans="1:7" ht="17.399999999999999">
       <c r="A241" s="35"/>
       <c r="B241" s="95" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -7445,7 +7438,7 @@
     <row r="251" spans="1:7" ht="17.399999999999999">
       <c r="A251" s="35"/>
       <c r="B251" s="95" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -7553,7 +7546,7 @@
     <row r="261" spans="1:7" ht="17.399999999999999">
       <c r="A261" s="35"/>
       <c r="B261" s="95" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -7650,7 +7643,7 @@
     <row r="270" spans="1:7" ht="17.399999999999999">
       <c r="A270" s="107"/>
       <c r="B270" s="95" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -7747,7 +7740,7 @@
     <row r="279" spans="1:7" ht="17.399999999999999">
       <c r="A279" s="73"/>
       <c r="B279" s="95" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -7766,7 +7759,7 @@
     </row>
     <row r="281" spans="1:7" ht="17.399999999999999">
       <c r="A281" s="73"/>
-      <c r="B281" s="205" t="s">
+      <c r="B281" s="204" t="s">
         <v>266</v>
       </c>
       <c r="C281" s="1"/>
@@ -7832,7 +7825,7 @@
     </row>
     <row r="287" spans="1:7" ht="17.399999999999999">
       <c r="A287" s="107"/>
-      <c r="B287" s="205" t="s">
+      <c r="B287" s="204" t="s">
         <v>266</v>
       </c>
       <c r="C287" s="1"/>
@@ -7866,7 +7859,7 @@
     <row r="290" spans="1:7" ht="17.399999999999999">
       <c r="A290" s="107"/>
       <c r="B290" s="95" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -7886,7 +7879,7 @@
     <row r="292" spans="1:7" ht="17.399999999999999">
       <c r="A292" s="35"/>
       <c r="B292" s="95" t="s">
-        <v>1067</v>
+        <v>1047</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -7974,7 +7967,7 @@
     <row r="300" spans="1:7" ht="17.399999999999999">
       <c r="A300" s="35"/>
       <c r="B300" s="95" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -8190,7 +8183,7 @@
     <row r="320" spans="1:7" ht="17.399999999999999">
       <c r="A320" s="35"/>
       <c r="B320" s="108" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -8298,7 +8291,7 @@
     <row r="330" spans="1:7" ht="17.399999999999999">
       <c r="A330" s="35"/>
       <c r="B330" s="108" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -8406,7 +8399,7 @@
     <row r="340" spans="1:7" ht="17.399999999999999">
       <c r="A340" s="35"/>
       <c r="B340" s="108" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -8514,7 +8507,7 @@
     <row r="350" spans="1:7" ht="17.399999999999999">
       <c r="A350" s="35"/>
       <c r="B350" s="108" t="s">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -8644,7 +8637,7 @@
     <row r="362" spans="1:7" ht="17.399999999999999">
       <c r="A362" s="35"/>
       <c r="B362" s="108" t="s">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -8752,7 +8745,7 @@
     <row r="372" spans="1:7" ht="17.399999999999999">
       <c r="A372" s="35"/>
       <c r="B372" s="108" t="s">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -8871,7 +8864,7 @@
     <row r="383" spans="1:7" ht="17.399999999999999">
       <c r="A383" s="35"/>
       <c r="B383" s="95" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -8890,7 +8883,7 @@
     </row>
     <row r="385" spans="1:7" ht="17.399999999999999">
       <c r="A385" s="35"/>
-      <c r="B385" s="204" t="s">
+      <c r="B385" s="203" t="s">
         <v>332</v>
       </c>
       <c r="C385" s="1"/>
@@ -8968,7 +8961,7 @@
     <row r="392" spans="1:7" ht="17.399999999999999">
       <c r="A392" s="35"/>
       <c r="B392" s="95" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -9076,7 +9069,7 @@
     <row r="402" spans="1:7" ht="17.399999999999999">
       <c r="A402" s="35"/>
       <c r="B402" s="95" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -9184,7 +9177,7 @@
     <row r="412" spans="1:7" ht="17.399999999999999">
       <c r="A412" s="107"/>
       <c r="B412" s="95" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -9495,7 +9488,7 @@
     <row r="441" spans="1:7" ht="17.399999999999999">
       <c r="A441" s="35"/>
       <c r="B441" s="95" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -9614,7 +9607,7 @@
     <row r="452" spans="1:7" ht="17.399999999999999">
       <c r="A452" s="35"/>
       <c r="B452" s="95" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -9746,7 +9739,7 @@
     <row r="464" spans="1:7" ht="17.399999999999999">
       <c r="A464" s="35"/>
       <c r="B464" s="95" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -9865,7 +9858,7 @@
     <row r="475" spans="1:7" ht="17.399999999999999">
       <c r="A475" s="35"/>
       <c r="B475" s="95" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -9984,7 +9977,7 @@
     <row r="486" spans="1:7" ht="17.399999999999999">
       <c r="A486" s="35"/>
       <c r="B486" s="95" t="s">
-        <v>1073</v>
+        <v>1053</v>
       </c>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
@@ -10092,7 +10085,7 @@
     <row r="496" spans="1:7" ht="17.399999999999999">
       <c r="A496" s="35"/>
       <c r="B496" s="108" t="s">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -10200,7 +10193,7 @@
     <row r="506" spans="1:7" ht="17.399999999999999">
       <c r="A506" s="35"/>
       <c r="B506" s="113" t="s">
-        <v>1045</v>
+        <v>1025</v>
       </c>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -10330,7 +10323,7 @@
     <row r="518" spans="1:7" ht="17.399999999999999">
       <c r="A518" s="35"/>
       <c r="B518" s="102" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
@@ -10449,7 +10442,7 @@
     <row r="529" spans="1:7" ht="17.399999999999999">
       <c r="A529" s="35"/>
       <c r="B529" s="95" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
@@ -10546,7 +10539,7 @@
     <row r="538" spans="1:7" ht="17.399999999999999">
       <c r="A538" s="2"/>
       <c r="B538" s="95" t="s">
-        <v>1075</v>
+        <v>1055</v>
       </c>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
@@ -10655,7 +10648,7 @@
     <row r="548" spans="1:7" ht="17.399999999999999">
       <c r="A548" s="95"/>
       <c r="B548" s="95" t="s">
-        <v>1076</v>
+        <v>1056</v>
       </c>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
@@ -10764,7 +10757,7 @@
     <row r="558" spans="1:7" ht="17.399999999999999">
       <c r="A558" s="73"/>
       <c r="B558" s="95" t="s">
-        <v>1077</v>
+        <v>1057</v>
       </c>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
@@ -10885,7 +10878,7 @@
     <row r="569" spans="1:7" ht="17.399999999999999">
       <c r="A569" s="2"/>
       <c r="B569" s="95" t="s">
-        <v>1077</v>
+        <v>1057</v>
       </c>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
@@ -10995,7 +10988,7 @@
     <row r="579" spans="1:7" ht="17.399999999999999">
       <c r="A579" s="35"/>
       <c r="B579" s="95" t="s">
-        <v>1078</v>
+        <v>1058</v>
       </c>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
@@ -11129,7 +11122,7 @@
     <row r="591" spans="1:7" ht="17.399999999999999">
       <c r="A591" s="14"/>
       <c r="B591" s="14" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
@@ -11252,7 +11245,7 @@
     <row r="602" spans="1:7" ht="17.399999999999999">
       <c r="A602" s="30"/>
       <c r="B602" s="30" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
@@ -15185,7 +15178,7 @@
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="87"/>
       <c r="B10" s="122" t="s">
-        <v>1019</v>
+        <v>999</v>
       </c>
       <c r="C10" s="72"/>
     </row>
@@ -15247,7 +15240,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>1021</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -15292,7 +15285,7 @@
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="35"/>
       <c r="B28" t="s">
-        <v>1014</v>
+        <v>994</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
@@ -15349,7 +15342,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="B38" s="95" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
@@ -15401,7 +15394,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="B48" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1"/>
@@ -15448,7 +15441,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="B58" t="s">
-        <v>1020</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
@@ -15507,7 +15500,7 @@
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="B70" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
@@ -15562,7 +15555,7 @@
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="73"/>
       <c r="B78" s="95" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C78" s="3"/>
     </row>
@@ -15623,7 +15616,7 @@
     <row r="87" spans="1:4" ht="15.75" customHeight="1">
       <c r="A87" s="73"/>
       <c r="B87" s="95" t="s">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="C87" s="3"/>
     </row>
@@ -15635,7 +15628,7 @@
     <row r="89" spans="1:4" ht="15.75" customHeight="1">
       <c r="A89" s="14"/>
       <c r="B89" s="14" t="s">
-        <v>1079</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1">
@@ -15649,7 +15642,7 @@
     <row r="91" spans="1:4" ht="15.75" customHeight="1">
       <c r="A91" s="14"/>
       <c r="B91" s="14" t="s">
-        <v>1026</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1">
@@ -15659,7 +15652,7 @@
     <row r="93" spans="1:4" ht="15.75" customHeight="1">
       <c r="A93" s="14"/>
       <c r="B93" s="14" t="s">
-        <v>1080</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1">
@@ -15674,7 +15667,7 @@
     <row r="95" spans="1:4" ht="15.75" customHeight="1">
       <c r="A95" s="14"/>
       <c r="B95" s="14" t="s">
-        <v>1026</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1">
@@ -15683,8 +15676,8 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="14"/>
-      <c r="B97" s="202" t="s">
-        <v>1027</v>
+      <c r="B97" s="201" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
@@ -15723,7 +15716,7 @@
     <row r="103" spans="1:10" ht="15.75" customHeight="1">
       <c r="A103" s="122"/>
       <c r="B103" s="122" t="s">
-        <v>1028</v>
+        <v>1008</v>
       </c>
       <c r="J103" s="72" t="s">
         <v>499</v>
@@ -15796,7 +15789,7 @@
     <row r="115" spans="1:7" ht="15.75" customHeight="1">
       <c r="A115" s="76"/>
       <c r="B115" s="76" t="s">
-        <v>1029</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1">
@@ -15891,7 +15884,7 @@
       <c r="B125" s="30"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B126" s="206" t="s">
+      <c r="B126" s="205" t="s">
         <v>216</v>
       </c>
     </row>
@@ -15946,12 +15939,12 @@
     <row r="135" spans="1:2" ht="15.75" customHeight="1">
       <c r="A135" s="14"/>
       <c r="B135" s="14" t="s">
-        <v>1026</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="137" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B137" s="203" t="s">
+      <c r="B137" s="202" t="s">
         <v>209</v>
       </c>
     </row>
@@ -16000,7 +15993,7 @@
     <row r="145" spans="1:2" ht="15.75" customHeight="1">
       <c r="A145" s="14"/>
       <c r="B145" s="14" t="s">
-        <v>1029</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.75" customHeight="1">
@@ -16008,8 +16001,8 @@
       <c r="B146" s="14"/>
     </row>
     <row r="147" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B147" s="203" t="s">
-        <v>1030</v>
+      <c r="B147" s="202" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1">
@@ -16044,12 +16037,12 @@
     </row>
     <row r="154" spans="1:2" ht="15.75" customHeight="1">
       <c r="B154" s="72" t="s">
-        <v>1031</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="156" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B156" s="203" t="s">
+      <c r="B156" s="202" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16059,7 +16052,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B158" s="203" t="s">
+      <c r="B158" s="202" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16075,15 +16068,15 @@
     </row>
     <row r="161" spans="2:2" ht="15.75" customHeight="1">
       <c r="B161" s="72" t="s">
-        <v>1026</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="15.75" customHeight="1">
       <c r="B162" s="72"/>
     </row>
     <row r="163" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B163" s="203" t="s">
-        <v>1032</v>
+      <c r="B163" s="202" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="164" spans="2:2" ht="15.75" customHeight="1">
@@ -16113,15 +16106,15 @@
     </row>
     <row r="169" spans="2:2" ht="15.75" customHeight="1">
       <c r="B169" s="72" t="s">
-        <v>1033</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="170" spans="2:2" ht="15.75" customHeight="1">
       <c r="B170" s="72"/>
     </row>
     <row r="171" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B171" s="203" t="s">
-        <v>1034</v>
+      <c r="B171" s="202" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="172" spans="2:2" ht="15.75" customHeight="1">
@@ -16982,7 +16975,7 @@
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="130" t="s">
-        <v>1037</v>
+        <v>1017</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -16991,7 +16984,7 @@
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="130" t="s">
-        <v>1035</v>
+        <v>1015</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -17045,7 +17038,7 @@
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="81"/>
@@ -17097,7 +17090,7 @@
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="63"/>
       <c r="B18" s="63" t="s">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -17160,7 +17153,7 @@
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="30"/>
       <c r="B25" s="30" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -17268,7 +17261,7 @@
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="30"/>
       <c r="B37" s="30" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -17333,7 +17326,7 @@
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="63" t="s">
-        <v>1037</v>
+        <v>1017</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
@@ -17378,7 +17371,7 @@
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="30" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -17423,7 +17416,7 @@
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="30"/>
       <c r="B54" s="131" t="s">
-        <v>1037</v>
+        <v>1017</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -17504,7 +17497,7 @@
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="30" t="s">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
@@ -17592,7 +17585,7 @@
     <row r="73" spans="1:5" ht="15.75" customHeight="1">
       <c r="A73" s="30"/>
       <c r="B73" s="30" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="C73" s="30"/>
       <c r="D73" s="30"/>
@@ -17689,7 +17682,7 @@
     <row r="84" spans="1:5" ht="15.75" customHeight="1">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="C84" s="30"/>
       <c r="D84" s="30"/>
@@ -17795,7 +17788,7 @@
     <row r="96" spans="1:5" ht="15.75" customHeight="1">
       <c r="A96" s="30"/>
       <c r="B96" s="30" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
@@ -17892,7 +17885,7 @@
     <row r="107" spans="1:5" ht="15.75" customHeight="1">
       <c r="A107" s="30"/>
       <c r="B107" s="30" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
@@ -17989,7 +17982,7 @@
     <row r="118" spans="1:6" ht="15.75" customHeight="1">
       <c r="A118" s="30"/>
       <c r="B118" s="30" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="C118" s="30"/>
       <c r="D118" s="30"/>
@@ -18105,7 +18098,7 @@
     <row r="130" spans="1:6" ht="15.75" customHeight="1">
       <c r="A130" s="30"/>
       <c r="B130" s="30" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="C130" s="30"/>
       <c r="D130" s="30"/>
@@ -18229,7 +18222,7 @@
     <row r="144" spans="1:6" ht="15.75" customHeight="1">
       <c r="A144" s="30"/>
       <c r="B144" s="30" t="s">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="C144" s="30"/>
       <c r="D144" s="30"/>
@@ -18326,7 +18319,7 @@
     <row r="155" spans="1:5" ht="15.75" customHeight="1">
       <c r="A155" s="30"/>
       <c r="B155" s="30" t="s">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="C155" s="30"/>
       <c r="D155" s="30"/>
@@ -18414,7 +18407,7 @@
     <row r="165" spans="1:5" ht="15.75" customHeight="1">
       <c r="A165" s="30"/>
       <c r="B165" s="30" t="s">
-        <v>1041</v>
+        <v>1021</v>
       </c>
       <c r="C165" s="30"/>
       <c r="D165" s="30"/>
@@ -18429,7 +18422,7 @@
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1">
       <c r="A167" s="30"/>
-      <c r="B167" s="202" t="s">
+      <c r="B167" s="201" t="s">
         <v>640</v>
       </c>
       <c r="C167" s="30"/>
@@ -18484,7 +18477,7 @@
     <row r="173" spans="1:5" ht="15.75" customHeight="1">
       <c r="A173" s="30"/>
       <c r="B173" s="30" t="s">
-        <v>1042</v>
+        <v>1022</v>
       </c>
       <c r="C173" s="30"/>
       <c r="D173" s="30"/>
@@ -18588,7 +18581,7 @@
     <row r="185" spans="1:5" ht="15.75" customHeight="1">
       <c r="A185" s="30"/>
       <c r="B185" s="30" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="C185" s="30"/>
       <c r="D185" s="30"/>
@@ -18692,7 +18685,7 @@
     <row r="197" spans="1:5" ht="15.75" customHeight="1">
       <c r="A197" s="30"/>
       <c r="B197" s="30" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="C197" s="30"/>
       <c r="D197" s="30"/>
@@ -18862,7 +18855,7 @@
     <row r="215" spans="1:7" ht="15.75" customHeight="1">
       <c r="A215" s="14"/>
       <c r="B215" s="14" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -18940,7 +18933,7 @@
     <row r="223" spans="1:7" ht="15.75" customHeight="1">
       <c r="A223" s="14"/>
       <c r="B223" s="14" t="s">
-        <v>1043</v>
+        <v>1023</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -21339,7 +21332,7 @@
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="87"/>
       <c r="B6" s="122" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
       <c r="D6" s="14"/>
     </row>
@@ -21375,7 +21368,7 @@
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="120"/>
       <c r="B12" s="3" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="143"/>
@@ -21421,7 +21414,7 @@
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="120"/>
       <c r="B18" s="143" t="s">
-        <v>1029</v>
+        <v>1009</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -21471,7 +21464,7 @@
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="87"/>
       <c r="B25" s="122" t="s">
-        <v>1044</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
@@ -21511,7 +21504,7 @@
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="87"/>
       <c r="B32" s="122" t="s">
-        <v>1045</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
@@ -21520,8 +21513,8 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="87"/>
-      <c r="B34" s="203" t="s">
-        <v>1081</v>
+      <c r="B34" s="202" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
@@ -21545,7 +21538,7 @@
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="87"/>
       <c r="B38" s="122" t="s">
-        <v>1045</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
@@ -21585,7 +21578,7 @@
     <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="87"/>
       <c r="B45" s="87" t="s">
-        <v>1046</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1">
@@ -21631,7 +21624,7 @@
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="76"/>
       <c r="B53" s="76" t="s">
-        <v>1047</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
@@ -21701,7 +21694,7 @@
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="122"/>
       <c r="B61" s="14" t="s">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c r="D61" s="122"/>
       <c r="F61" s="146"/>
@@ -21731,7 +21724,7 @@
     <row r="66" spans="1:4" ht="15.75" customHeight="1">
       <c r="A66" s="77"/>
       <c r="B66" s="42" t="s">
-        <v>1029</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1">
@@ -21740,8 +21733,8 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1">
       <c r="A68" s="77"/>
-      <c r="B68" s="202" t="s">
-        <v>1049</v>
+      <c r="B68" s="201" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1">
@@ -21783,7 +21776,7 @@
     <row r="75" spans="1:4" ht="15.75" customHeight="1">
       <c r="A75" s="77"/>
       <c r="B75" s="42" t="s">
-        <v>1050</v>
+        <v>1030</v>
       </c>
       <c r="D75" s="122"/>
     </row>
@@ -21794,8 +21787,8 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1">
       <c r="A77" s="77"/>
-      <c r="B77" s="202" t="s">
-        <v>1051</v>
+      <c r="B77" s="201" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1">
@@ -21844,7 +21837,7 @@
     <row r="85" spans="1:4" ht="15.75" customHeight="1">
       <c r="A85" s="148"/>
       <c r="B85" s="122" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="D85" s="72"/>
     </row>
@@ -21855,8 +21848,8 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1">
       <c r="A87" s="145"/>
-      <c r="B87" s="203" t="s">
-        <v>1054</v>
+      <c r="B87" s="202" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1">
@@ -21917,7 +21910,7 @@
     <row r="97" spans="1:2" ht="15.75" customHeight="1">
       <c r="A97" s="122"/>
       <c r="B97" s="122" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1">
@@ -25474,7 +25467,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>1055</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -25543,7 +25536,7 @@
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>1025</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
@@ -25669,7 +25662,7 @@
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B39" s="203" t="s">
+      <c r="B39" s="202" t="s">
         <v>666</v>
       </c>
     </row>
@@ -27427,7 +27420,7 @@
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="160"/>
       <c r="B8" s="156" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
@@ -27481,7 +27474,7 @@
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="157"/>
       <c r="B17" s="156" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
@@ -27535,7 +27528,7 @@
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="157"/>
       <c r="B26" s="156" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
@@ -27589,7 +27582,7 @@
     <row r="35" spans="1:5" ht="22.5" customHeight="1">
       <c r="A35" s="170"/>
       <c r="B35" s="156" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
@@ -27646,7 +27639,7 @@
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="170"/>
       <c r="B44" s="156" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
@@ -27700,7 +27693,7 @@
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="176"/>
       <c r="B53" s="156" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
@@ -27774,7 +27767,7 @@
     <row r="66" spans="1:7" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1">
@@ -27837,7 +27830,7 @@
     <row r="76" spans="1:7" ht="15.75" customHeight="1">
       <c r="A76" s="93"/>
       <c r="B76" s="93" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1"/>
@@ -27894,7 +27887,7 @@
     <row r="86" spans="1:2" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1">
@@ -28820,8 +28813,8 @@
   </sheetPr>
   <dimension ref="A1:E1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -28874,7 +28867,7 @@
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="179"/>
       <c r="B5" s="180" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -28901,7 +28894,7 @@
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="179"/>
       <c r="B8" s="179" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -28936,7 +28929,7 @@
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="179"/>
       <c r="B12" s="179" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -28981,7 +28974,7 @@
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="179"/>
       <c r="B17" s="179" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -29033,7 +29026,7 @@
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="179"/>
       <c r="B23" s="179" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -29060,7 +29053,7 @@
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="179"/>
       <c r="B26" s="179" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -29123,7 +29116,7 @@
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="187"/>
       <c r="B33" s="179" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -29168,7 +29161,7 @@
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="68"/>
       <c r="B38" s="189" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="14"/>
@@ -29215,7 +29208,7 @@
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="30"/>
       <c r="B43" s="179" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -29258,7 +29251,7 @@
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="190"/>
       <c r="B48" s="182" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="C48" s="87"/>
       <c r="D48" s="87"/>
@@ -29276,7 +29269,7 @@
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="190"/>
       <c r="B50" s="179" t="s">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
@@ -29310,7 +29303,7 @@
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="190"/>
       <c r="B54" s="193" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
@@ -29328,7 +29321,7 @@
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="190"/>
       <c r="B56" s="179" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="87"/>
@@ -29380,7 +29373,7 @@
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
       <c r="A62" s="190"/>
       <c r="B62" s="179" t="s">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="C62" s="87"/>
       <c r="E62" s="87"/>
@@ -29422,7 +29415,7 @@
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
       <c r="A67" s="190"/>
       <c r="B67" s="179" t="s">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="C67" s="87"/>
       <c r="D67" s="87"/>
@@ -29515,7 +29508,7 @@
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1">
       <c r="B79" s="179" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1">
@@ -29585,7 +29578,7 @@
     <row r="88" spans="1:5" ht="15.75" customHeight="1">
       <c r="A88" s="83"/>
       <c r="B88" s="4" t="s">
-        <v>1066</v>
+        <v>1046</v>
       </c>
       <c r="C88" s="43"/>
       <c r="D88" s="1"/>
@@ -29601,141 +29594,141 @@
     <row r="91" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="92" spans="1:5" ht="15.75" customHeight="1">
       <c r="A92" s="72"/>
-      <c r="B92" s="201" t="s">
-        <v>974</v>
+      <c r="B92" s="202" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="94" spans="1:5" ht="15.75" customHeight="1">
       <c r="A94" s="72"/>
-      <c r="B94" s="71" t="s">
-        <v>975</v>
+      <c r="B94" s="202" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="96" spans="1:5" ht="15.75" customHeight="1">
       <c r="A96" s="72"/>
-      <c r="B96" s="71" t="s">
-        <v>976</v>
+      <c r="B96" s="202" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="98" spans="1:2" ht="15.75" customHeight="1">
       <c r="A98" s="72"/>
-      <c r="B98" s="201" t="s">
-        <v>977</v>
+      <c r="B98" s="202" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="100" spans="1:2" ht="15.75" customHeight="1">
       <c r="A100" s="72"/>
-      <c r="B100" s="201" t="s">
-        <v>978</v>
+      <c r="B100" s="202" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="102" spans="1:2" ht="15.75" customHeight="1">
       <c r="A102" s="72"/>
-      <c r="B102" s="201" t="s">
-        <v>979</v>
+      <c r="B102" s="202" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="104" spans="1:2" ht="15.75" customHeight="1">
       <c r="A104" s="72"/>
-      <c r="B104" s="201" t="s">
-        <v>980</v>
+      <c r="B104" s="202" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="106" spans="1:2" ht="15.75" customHeight="1">
       <c r="A106" s="72"/>
-      <c r="B106" s="201" t="s">
-        <v>981</v>
+      <c r="B106" s="202" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="108" spans="1:2" ht="15.75" customHeight="1">
       <c r="A108" s="72"/>
-      <c r="B108" s="201" t="s">
-        <v>982</v>
+      <c r="B108" s="202" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="110" spans="1:2" ht="15.75" customHeight="1">
       <c r="A110" s="72"/>
-      <c r="B110" s="201" t="s">
-        <v>983</v>
+      <c r="B110" s="202" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="112" spans="1:2" ht="15.75" customHeight="1">
       <c r="A112" s="72"/>
-      <c r="B112" s="201" t="s">
-        <v>984</v>
+      <c r="B112" s="202" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="114" spans="1:2" ht="15.75" customHeight="1">
       <c r="A114" s="72"/>
-      <c r="B114" s="201" t="s">
-        <v>985</v>
+      <c r="B114" s="202" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="116" spans="1:2" ht="15.75" customHeight="1">
       <c r="A116" s="72"/>
-      <c r="B116" s="201" t="s">
-        <v>986</v>
+      <c r="B116" s="202" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="118" spans="1:2" ht="15.75" customHeight="1">
       <c r="A118" s="72"/>
-      <c r="B118" s="201" t="s">
-        <v>987</v>
+      <c r="B118" s="202" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="120" spans="1:2" ht="15.75" customHeight="1">
       <c r="A120" s="72"/>
-      <c r="B120" s="201" t="s">
-        <v>988</v>
+      <c r="B120" s="202" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="122" spans="1:2" ht="15.75" customHeight="1">
       <c r="A122" s="72"/>
-      <c r="B122" s="201" t="s">
-        <v>989</v>
+      <c r="B122" s="202" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="124" spans="1:2" ht="15.75" customHeight="1">
       <c r="A124" s="72"/>
-      <c r="B124" s="201" t="s">
-        <v>990</v>
+      <c r="B124" s="202" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="126" spans="1:2" ht="15.75" customHeight="1">
       <c r="A126" s="72"/>
-      <c r="B126" s="201" t="s">
-        <v>991</v>
+      <c r="B126" s="202" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="128" spans="1:2" ht="15.75" customHeight="1">
       <c r="A128" s="72"/>
-      <c r="B128" s="201" t="s">
-        <v>992</v>
+      <c r="B128" s="202" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="130" spans="1:2" ht="15.75" customHeight="1">
       <c r="A130" s="72"/>
-      <c r="B130" s="201" t="s">
-        <v>993</v>
+      <c r="B130" s="202" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1"/>
@@ -29743,57 +29736,57 @@
     <row r="133" spans="1:2" ht="15.75" customHeight="1">
       <c r="A133" s="72"/>
       <c r="B133" s="94" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.75" customHeight="1">
       <c r="B134" s="37" t="s">
-        <v>995</v>
+        <v>975</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1">
       <c r="B135" s="37" t="s">
-        <v>996</v>
+        <v>976</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1">
       <c r="B136" s="37" t="s">
-        <v>997</v>
+        <v>977</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1">
       <c r="B137" s="37" t="s">
-        <v>998</v>
+        <v>978</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75" customHeight="1">
       <c r="B138" s="37" t="s">
-        <v>999</v>
+        <v>979</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75" customHeight="1">
       <c r="B139" s="37" t="s">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1">
       <c r="B140" s="37" t="s">
-        <v>1001</v>
+        <v>981</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.75" customHeight="1">
       <c r="B141" s="37" t="s">
-        <v>1002</v>
+        <v>982</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.75" customHeight="1">
       <c r="B142" s="94" t="s">
-        <v>1003</v>
+        <v>983</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.75" customHeight="1">
       <c r="B143" s="37" t="s">
-        <v>1063</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1">
@@ -29801,12 +29794,12 @@
     </row>
     <row r="145" spans="2:2" ht="15.75" customHeight="1">
       <c r="B145" s="94" t="s">
-        <v>1004</v>
+        <v>984</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="15.75" customHeight="1">
       <c r="B146" s="37" t="s">
-        <v>1005</v>
+        <v>985</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="15.75" customHeight="1">
@@ -29816,37 +29809,37 @@
     </row>
     <row r="148" spans="2:2" ht="15.75" customHeight="1">
       <c r="B148" s="37" t="s">
-        <v>1006</v>
+        <v>986</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="15.75" customHeight="1">
       <c r="B149" s="37" t="s">
-        <v>1007</v>
+        <v>987</v>
       </c>
     </row>
     <row r="150" spans="2:2" ht="15.75" customHeight="1">
       <c r="B150" s="37" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
     </row>
     <row r="151" spans="2:2" ht="15.75" customHeight="1">
       <c r="B151" s="37" t="s">
-        <v>1009</v>
+        <v>989</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="15.75" customHeight="1">
       <c r="B152" s="37" t="s">
-        <v>1010</v>
+        <v>990</v>
       </c>
     </row>
     <row r="153" spans="2:2" ht="15.75" customHeight="1">
       <c r="B153" s="37" t="s">
-        <v>1011</v>
+        <v>991</v>
       </c>
     </row>
     <row r="154" spans="2:2" ht="15.75" customHeight="1">
       <c r="B154" s="37" t="s">
-        <v>1064</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="155" spans="2:2" ht="15.75" customHeight="1"/>
@@ -30755,6 +30748,8 @@
     <hyperlink ref="B133" r:id="rId38" xr:uid="{00000000-0004-0000-0600-000026000000}"/>
     <hyperlink ref="B142" r:id="rId39" xr:uid="{00000000-0004-0000-0600-000027000000}"/>
     <hyperlink ref="B145" r:id="rId40" xr:uid="{00000000-0004-0000-0600-000028000000}"/>
+    <hyperlink ref="B96" r:id="rId41" xr:uid="{BC387D64-11C3-411E-9B1A-401C8E1D1762}"/>
+    <hyperlink ref="B94" r:id="rId42" xr:uid="{AF71C2FC-501C-4A9C-A941-C63976483212}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/uploads/journals.xlsx
+++ b/static/uploads/journals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\array-research\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1808A8-0840-4ED1-8CEF-38070E1439BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13591D07-562E-4D7F-A915-6F15453CD321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scopus " sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="950">
   <si>
     <t>Open Access</t>
   </si>
@@ -2380,321 +2380,6 @@
     <t>INR. 40k with copies</t>
   </si>
   <si>
-    <t>Please share the book Author Details:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book Title : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book Position Booked:   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name:    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualifications :  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designation:    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department:   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute:     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">City:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">State:     </t>
-  </si>
-  <si>
-    <t>Mail id</t>
-  </si>
-  <si>
-    <t>Please share the Patent inventor  Details:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patent Title: </t>
-  </si>
-  <si>
-    <t>Patent Position Booked:</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Designation:</t>
-  </si>
-  <si>
-    <t>Department:</t>
-  </si>
-  <si>
-    <t>Institute:</t>
-  </si>
-  <si>
-    <t>District:</t>
-  </si>
-  <si>
-    <t>City:</t>
-  </si>
-  <si>
-    <t>State:</t>
-  </si>
-  <si>
-    <t>Please share the Author  Details:</t>
-  </si>
-  <si>
-    <t>Article Title :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author Position Booked:  </t>
-  </si>
-  <si>
-    <t>Journal Name:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designation: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">City: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">State: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mail  id: </t>
-  </si>
-  <si>
-    <t>Paper type- Research Paper/Synopsis/Research Proposal/Thesis/Dissertation</t>
-  </si>
-  <si>
-    <t>Pages/Words-</t>
-  </si>
-  <si>
-    <t>Reference style-</t>
-  </si>
-  <si>
-    <t>Structure if want to give-</t>
-  </si>
-  <si>
-    <t>Plagiarism (%)-</t>
-  </si>
-  <si>
-    <t>With tool (or)</t>
-  </si>
-  <si>
-    <t>Without tool</t>
-  </si>
-  <si>
-    <t>CUSTOMIZED  BOOKS ARE AVAILABLE  FOR  SALE</t>
-  </si>
-  <si>
-    <t>APPLICATIONS OF BLOCKCHAIN TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>ARTIFICIAL INTELLIGENCE</t>
-  </si>
-  <si>
-    <t>Business Communication</t>
-  </si>
-  <si>
-    <t>BUSINESS MATHEMATICS</t>
-  </si>
-  <si>
-    <t>Cloud Computing</t>
-  </si>
-  <si>
-    <t>Communication Skills</t>
-  </si>
-  <si>
-    <t>COST AND MANAGEMENT</t>
-  </si>
-  <si>
-    <t>CRYPTOGRAPHY AND NETWORK SECURITY</t>
-  </si>
-  <si>
-    <t>DATA ANALYTICS WITH PYTHON</t>
-  </si>
-  <si>
-    <t>DATA STRUCTURE</t>
-  </si>
-  <si>
-    <t>DIGITAL MARKETING</t>
-  </si>
-  <si>
-    <t>Economics for engineers</t>
-  </si>
-  <si>
-    <t>Electrical Engineering</t>
-  </si>
-  <si>
-    <t>ENGINEERING CHEMISTRY</t>
-  </si>
-  <si>
-    <t>ENGINEERING MATHEMATICS</t>
-  </si>
-  <si>
-    <t>ENTREPRENEURSHIP</t>
-  </si>
-  <si>
-    <t>ENTREPRENEURSHIP MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Financial Market and Institutions</t>
-  </si>
-  <si>
-    <t>Foreign Exchange international finance and Risk Management</t>
-  </si>
-  <si>
-    <t>Fundamental of Data Analytics with Tableau</t>
-  </si>
-  <si>
-    <t>Fundamentals of Information Technology</t>
-  </si>
-  <si>
-    <t>History of India-The Ancient Past</t>
-  </si>
-  <si>
-    <t>HUMAN RESOURCE MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Income Tax</t>
-  </si>
-  <si>
-    <t>Intellectual Property Rights Book</t>
-  </si>
-  <si>
-    <t>IOT in Business</t>
-  </si>
-  <si>
-    <t>MACHINE LEARNING</t>
-  </si>
-  <si>
-    <t>MARKET INTELLIGENCE AND PREDICTIVE ANALYTICS-THE POWER OF DECISION MAKING</t>
-  </si>
-  <si>
-    <t>Operations Research</t>
-  </si>
-  <si>
-    <t>ORGANIC CHEMISTRY</t>
-  </si>
-  <si>
-    <t>ORGANIZATION BEHAVIOUR</t>
-  </si>
-  <si>
-    <t>Performance management</t>
-  </si>
-  <si>
-    <t>PLASTIC RECYCLING &amp; WASTE MANAGEMENT</t>
-  </si>
-  <si>
-    <t>POSITIVE PSYCHOLOGY</t>
-  </si>
-  <si>
-    <t>POSITIVE THINKING AND CREATIVE THINKING</t>
-  </si>
-  <si>
-    <t>Principals of Management</t>
-  </si>
-  <si>
-    <t>PROBLEM-SOLVING AND CREATIVE THINKING</t>
-  </si>
-  <si>
-    <t>Psychology For Effective Leadership</t>
-  </si>
-  <si>
-    <t>RENEWABLE ENERGY CONVERSION AND TECHNOLOGIES</t>
-  </si>
-  <si>
-    <t>RENEWABLE ENERGY-PRINCIPLES OF HEAT TRANSFER</t>
-  </si>
-  <si>
-    <t>SALES AND DISTRIBUTION</t>
-  </si>
-  <si>
-    <t>Software Engineering</t>
-  </si>
-  <si>
-    <t>SOIL AQUATIC AGRICULTURAL AND MICROBIOLOGY</t>
-  </si>
-  <si>
-    <t>Soil Aquatic Agricultural Microbiology</t>
-  </si>
-  <si>
-    <t>SUPPLY CHAIN MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Zoology Animal Distribution</t>
-  </si>
-  <si>
-    <t>Cloud Computing Technology and Application</t>
-  </si>
-  <si>
-    <t>Consumer Protection</t>
-  </si>
-  <si>
-    <t>Micro Economics for business decision</t>
-  </si>
-  <si>
-    <t>Book Title: Cloud and Edge computing techniques</t>
-  </si>
-  <si>
-    <t>The insight of Food and Bevarages in Hotel Industry</t>
-  </si>
-  <si>
-    <t>Digital Marketing Strategies and Consumer Behavior: A Comprehensive Guide</t>
-  </si>
-  <si>
-    <t>Challenges and competencies in online teaching</t>
-  </si>
-  <si>
-    <t>Early childhood education</t>
-  </si>
-  <si>
-    <t>The Future of Innovation and Technology in Education</t>
-  </si>
-  <si>
-    <t>PHARMOCOLOGY</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL HRM</t>
-  </si>
-  <si>
-    <t>INFORMATION TECHNOLOGY AND ESSENTIALS</t>
-  </si>
-  <si>
-    <t>Fundamentals of digital electronics and microprocessor</t>
-  </si>
-  <si>
-    <t>Pharmacognosy and Phytochemisty PCI syllabus</t>
-  </si>
-  <si>
-    <t>E-commerce</t>
-  </si>
-  <si>
-    <t>Fundamental Of Biochemistry</t>
-  </si>
-  <si>
-    <t>Data Analytics: Principles, Tools, and Practices</t>
-  </si>
-  <si>
-    <t>Micro Economics</t>
-  </si>
-  <si>
-    <t>Introduction to Data mining</t>
-  </si>
-  <si>
-    <t>Wireless Communication and Network</t>
-  </si>
-  <si>
-    <t>INTRODUCTION TO BOTANY- TAXONOMY OF ANGIOSPERMS</t>
-  </si>
-  <si>
-    <t>Managenent practices and applications</t>
-  </si>
-  <si>
     <t>https://cswnn.edu.in/sites/default/files/users/user23/Brochure%20on%20the%20Journal%20Perspectives%20in%20Social%20Work.pdf</t>
   </si>
   <si>
@@ -3285,7 +2970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="99">
+  <fonts count="98">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3725,11 +3410,6 @@
       <name val="Noto Serif"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
@@ -3943,9 +3623,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4319,14 +3999,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4336,16 +4012,16 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4356,71 +4032,71 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="84" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="83" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="86" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="87" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="92" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="91" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="94" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="98" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="97" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="97" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -4450,7 +4126,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="18288000" cy="19507200"/>
@@ -4812,7 +4488,7 @@
     <row r="12" spans="1:7" ht="17.399999999999999">
       <c r="A12" s="18"/>
       <c r="B12" s="14" t="s">
-        <v>1013</v>
+        <v>908</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4920,7 +4596,7 @@
     <row r="23" spans="1:7" ht="17.399999999999999">
       <c r="A23" s="20"/>
       <c r="B23" s="30" t="s">
-        <v>1014</v>
+        <v>909</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5037,7 +4713,7 @@
     <row r="34" spans="1:7" ht="17.399999999999999">
       <c r="A34" s="20"/>
       <c r="B34" s="16" t="s">
-        <v>1015</v>
+        <v>910</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5150,7 +4826,7 @@
     <row r="44" spans="1:7" ht="17.399999999999999">
       <c r="A44" s="18"/>
       <c r="B44" s="16" t="s">
-        <v>1016</v>
+        <v>911</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5269,7 +4945,7 @@
     <row r="55" spans="1:7" ht="17.399999999999999">
       <c r="A55" s="18"/>
       <c r="B55" s="16" t="s">
-        <v>1016</v>
+        <v>911</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -5365,7 +5041,7 @@
     <row r="64" spans="1:7" ht="17.399999999999999">
       <c r="A64" s="18"/>
       <c r="B64" s="16" t="s">
-        <v>1016</v>
+        <v>911</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -5470,7 +5146,7 @@
     <row r="74" spans="1:7" ht="17.399999999999999">
       <c r="A74" s="18"/>
       <c r="B74" s="16" t="s">
-        <v>1016</v>
+        <v>911</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -5574,7 +5250,7 @@
     <row r="84" spans="1:7" ht="17.399999999999999">
       <c r="A84" s="35"/>
       <c r="B84" s="14" t="s">
-        <v>1017</v>
+        <v>912</v>
       </c>
       <c r="C84" s="40"/>
       <c r="D84" s="1"/>
@@ -5682,7 +5358,7 @@
     <row r="94" spans="1:7" ht="17.399999999999999">
       <c r="A94" s="18"/>
       <c r="B94" s="14" t="s">
-        <v>1018</v>
+        <v>913</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -5777,7 +5453,7 @@
     <row r="106" spans="1:7" ht="17.399999999999999">
       <c r="A106" s="18"/>
       <c r="B106" s="14" t="s">
-        <v>1019</v>
+        <v>914</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -5905,7 +5581,7 @@
     <row r="118" spans="1:7" ht="17.399999999999999">
       <c r="A118" s="18"/>
       <c r="B118" s="14" t="s">
-        <v>1020</v>
+        <v>915</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -6024,7 +5700,7 @@
     <row r="129" spans="1:7" ht="17.399999999999999">
       <c r="A129" s="18"/>
       <c r="B129" s="14" t="s">
-        <v>1021</v>
+        <v>916</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -6143,7 +5819,7 @@
     <row r="140" spans="1:7" ht="17.399999999999999">
       <c r="A140" s="18"/>
       <c r="B140" s="14" t="s">
-        <v>1022</v>
+        <v>917</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -6262,7 +5938,7 @@
     <row r="151" spans="1:7" ht="17.399999999999999">
       <c r="A151" s="18"/>
       <c r="B151" s="14" t="s">
-        <v>1023</v>
+        <v>918</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -6381,7 +6057,7 @@
     <row r="162" spans="1:7" ht="17.399999999999999">
       <c r="A162" s="18"/>
       <c r="B162" s="14" t="s">
-        <v>1023</v>
+        <v>918</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -6500,7 +6176,7 @@
     <row r="173" spans="1:7" ht="17.399999999999999">
       <c r="A173" s="18"/>
       <c r="B173" s="14" t="s">
-        <v>1023</v>
+        <v>918</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -6619,7 +6295,7 @@
     <row r="184" spans="1:7" ht="17.399999999999999">
       <c r="A184" s="18"/>
       <c r="B184" s="14" t="s">
-        <v>1023</v>
+        <v>918</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -6738,7 +6414,7 @@
     <row r="195" spans="1:7" ht="17.399999999999999">
       <c r="A195" s="18"/>
       <c r="B195" s="14" t="s">
-        <v>1023</v>
+        <v>918</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -6852,7 +6528,7 @@
     <row r="206" spans="1:7" ht="15.75" customHeight="1">
       <c r="A206" s="68"/>
       <c r="B206" s="69" t="s">
-        <v>1022</v>
+        <v>917</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="62"/>
@@ -6949,7 +6625,7 @@
     <row r="215" spans="1:7" ht="17.399999999999999">
       <c r="A215" s="9"/>
       <c r="B215" s="14" t="s">
-        <v>1018</v>
+        <v>913</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -7229,7 +6905,7 @@
     <row r="241" spans="1:7" ht="17.399999999999999">
       <c r="A241" s="35"/>
       <c r="B241" s="94" t="s">
-        <v>1024</v>
+        <v>919</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -7339,7 +7015,7 @@
     <row r="251" spans="1:7" ht="17.399999999999999">
       <c r="A251" s="35"/>
       <c r="B251" s="94" t="s">
-        <v>1024</v>
+        <v>919</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -7544,7 +7220,7 @@
     <row r="270" spans="1:7" ht="17.399999999999999">
       <c r="A270" s="106"/>
       <c r="B270" s="94" t="s">
-        <v>1025</v>
+        <v>920</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -7641,7 +7317,7 @@
     <row r="279" spans="1:7" ht="17.399999999999999">
       <c r="A279" s="73"/>
       <c r="B279" s="94" t="s">
-        <v>1025</v>
+        <v>920</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -7660,7 +7336,7 @@
     </row>
     <row r="281" spans="1:7" ht="17.399999999999999">
       <c r="A281" s="73"/>
-      <c r="B281" s="202" t="s">
+      <c r="B281" s="200" t="s">
         <v>265</v>
       </c>
       <c r="C281" s="1"/>
@@ -7726,7 +7402,7 @@
     </row>
     <row r="287" spans="1:7" ht="17.399999999999999">
       <c r="A287" s="106"/>
-      <c r="B287" s="202" t="s">
+      <c r="B287" s="200" t="s">
         <v>265</v>
       </c>
       <c r="C287" s="1"/>
@@ -7780,7 +7456,7 @@
     <row r="292" spans="1:7" ht="17.399999999999999">
       <c r="A292" s="35"/>
       <c r="B292" s="94" t="s">
-        <v>1009</v>
+        <v>904</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -7868,7 +7544,7 @@
     <row r="300" spans="1:7" ht="17.399999999999999">
       <c r="A300" s="35"/>
       <c r="B300" s="94" t="s">
-        <v>1026</v>
+        <v>921</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -8784,7 +8460,7 @@
     </row>
     <row r="385" spans="1:7" ht="17.399999999999999">
       <c r="A385" s="35"/>
-      <c r="B385" s="201" t="s">
+      <c r="B385" s="199" t="s">
         <v>331</v>
       </c>
       <c r="C385" s="1"/>
@@ -8862,7 +8538,7 @@
     <row r="392" spans="1:7" ht="17.399999999999999">
       <c r="A392" s="35"/>
       <c r="B392" s="94" t="s">
-        <v>1025</v>
+        <v>920</v>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -8970,7 +8646,7 @@
     <row r="402" spans="1:7" ht="17.399999999999999">
       <c r="A402" s="35"/>
       <c r="B402" s="94" t="s">
-        <v>1025</v>
+        <v>920</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -9078,7 +8754,7 @@
     <row r="412" spans="1:7" ht="17.399999999999999">
       <c r="A412" s="106"/>
       <c r="B412" s="94" t="s">
-        <v>1026</v>
+        <v>921</v>
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -9640,7 +9316,7 @@
     <row r="464" spans="1:7" ht="17.399999999999999">
       <c r="A464" s="35"/>
       <c r="B464" s="94" t="s">
-        <v>1027</v>
+        <v>922</v>
       </c>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -10094,7 +9770,7 @@
     <row r="506" spans="1:7" ht="17.399999999999999">
       <c r="A506" s="35"/>
       <c r="B506" s="112" t="s">
-        <v>1028</v>
+        <v>923</v>
       </c>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -10224,7 +9900,7 @@
     <row r="518" spans="1:7" ht="17.399999999999999">
       <c r="A518" s="35"/>
       <c r="B518" s="101" t="s">
-        <v>1029</v>
+        <v>924</v>
       </c>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
@@ -10440,7 +10116,7 @@
     <row r="538" spans="1:7" ht="17.399999999999999">
       <c r="A538" s="2"/>
       <c r="B538" s="94" t="s">
-        <v>1030</v>
+        <v>925</v>
       </c>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
@@ -10549,7 +10225,7 @@
     <row r="548" spans="1:7" ht="17.399999999999999">
       <c r="A548" s="94"/>
       <c r="B548" s="94" t="s">
-        <v>1031</v>
+        <v>926</v>
       </c>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
@@ -10658,7 +10334,7 @@
     <row r="558" spans="1:7" ht="17.399999999999999">
       <c r="A558" s="73"/>
       <c r="B558" s="94" t="s">
-        <v>1032</v>
+        <v>927</v>
       </c>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
@@ -10779,7 +10455,7 @@
     <row r="569" spans="1:7" ht="17.399999999999999">
       <c r="A569" s="2"/>
       <c r="B569" s="94" t="s">
-        <v>1032</v>
+        <v>927</v>
       </c>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
@@ -10889,7 +10565,7 @@
     <row r="579" spans="1:7" ht="17.399999999999999">
       <c r="A579" s="35"/>
       <c r="B579" s="94" t="s">
-        <v>1033</v>
+        <v>928</v>
       </c>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
@@ -11023,7 +10699,7 @@
     <row r="591" spans="1:7" ht="17.399999999999999">
       <c r="A591" s="14"/>
       <c r="B591" s="14" t="s">
-        <v>1026</v>
+        <v>921</v>
       </c>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
@@ -11144,7 +10820,7 @@
     <row r="602" spans="1:7" ht="17.399999999999999">
       <c r="A602" s="30"/>
       <c r="B602" s="30" t="s">
-        <v>1034</v>
+        <v>929</v>
       </c>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
@@ -15077,7 +14753,7 @@
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="86"/>
       <c r="B10" s="121" t="s">
-        <v>985</v>
+        <v>880</v>
       </c>
       <c r="C10" s="72"/>
     </row>
@@ -15139,7 +14815,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>987</v>
+        <v>882</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -15184,7 +14860,7 @@
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="35"/>
       <c r="B28" t="s">
-        <v>984</v>
+        <v>879</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
@@ -15241,7 +14917,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="B38" s="94" t="s">
-        <v>988</v>
+        <v>883</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
@@ -15293,7 +14969,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="B48" t="s">
-        <v>989</v>
+        <v>884</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1"/>
@@ -15340,7 +15016,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="B58" t="s">
-        <v>986</v>
+        <v>881</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
@@ -15399,7 +15075,7 @@
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="B70" t="s">
-        <v>990</v>
+        <v>885</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
@@ -15454,7 +15130,7 @@
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="73"/>
       <c r="B78" s="94" t="s">
-        <v>989</v>
+        <v>884</v>
       </c>
       <c r="C78" s="3"/>
     </row>
@@ -15515,7 +15191,7 @@
     <row r="87" spans="1:4" ht="15.75" customHeight="1">
       <c r="A87" s="73"/>
       <c r="B87" s="94" t="s">
-        <v>991</v>
+        <v>886</v>
       </c>
       <c r="C87" s="3"/>
     </row>
@@ -15527,7 +15203,7 @@
     <row r="89" spans="1:4" ht="15.75" customHeight="1">
       <c r="A89" s="14"/>
       <c r="B89" s="14" t="s">
-        <v>1010</v>
+        <v>905</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1">
@@ -15541,7 +15217,7 @@
     <row r="91" spans="1:4" ht="15.75" customHeight="1">
       <c r="A91" s="14"/>
       <c r="B91" s="14" t="s">
-        <v>992</v>
+        <v>887</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1">
@@ -15551,7 +15227,7 @@
     <row r="93" spans="1:4" ht="15.75" customHeight="1">
       <c r="A93" s="14"/>
       <c r="B93" s="14" t="s">
-        <v>1011</v>
+        <v>906</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1">
@@ -15566,7 +15242,7 @@
     <row r="95" spans="1:4" ht="15.75" customHeight="1">
       <c r="A95" s="14"/>
       <c r="B95" s="14" t="s">
-        <v>992</v>
+        <v>887</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1">
@@ -15575,8 +15251,8 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="14"/>
-      <c r="B97" s="199" t="s">
-        <v>993</v>
+      <c r="B97" s="197" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
@@ -15615,7 +15291,7 @@
     <row r="103" spans="1:10" ht="15.75" customHeight="1">
       <c r="A103" s="121"/>
       <c r="B103" s="121" t="s">
-        <v>994</v>
+        <v>889</v>
       </c>
       <c r="J103" s="72" t="s">
         <v>498</v>
@@ -15688,7 +15364,7 @@
     <row r="115" spans="1:7" ht="15.75" customHeight="1">
       <c r="A115" s="76"/>
       <c r="B115" s="76" t="s">
-        <v>995</v>
+        <v>890</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1">
@@ -15783,7 +15459,7 @@
       <c r="B125" s="30"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B126" s="203" t="s">
+      <c r="B126" s="201" t="s">
         <v>215</v>
       </c>
     </row>
@@ -15838,12 +15514,12 @@
     <row r="135" spans="1:2" ht="15.75" customHeight="1">
       <c r="A135" s="14"/>
       <c r="B135" s="14" t="s">
-        <v>992</v>
+        <v>887</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="137" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B137" s="200" t="s">
+      <c r="B137" s="198" t="s">
         <v>208</v>
       </c>
     </row>
@@ -15892,7 +15568,7 @@
     <row r="145" spans="1:2" ht="15.75" customHeight="1">
       <c r="A145" s="14"/>
       <c r="B145" s="14" t="s">
-        <v>995</v>
+        <v>890</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.75" customHeight="1">
@@ -15900,8 +15576,8 @@
       <c r="B146" s="14"/>
     </row>
     <row r="147" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B147" s="200" t="s">
-        <v>996</v>
+      <c r="B147" s="198" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1">
@@ -15936,12 +15612,12 @@
     </row>
     <row r="154" spans="1:2" ht="15.75" customHeight="1">
       <c r="B154" s="72" t="s">
-        <v>997</v>
+        <v>892</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="156" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B156" s="200" t="s">
+      <c r="B156" s="198" t="s">
         <v>525</v>
       </c>
     </row>
@@ -15951,7 +15627,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B158" s="200" t="s">
+      <c r="B158" s="198" t="s">
         <v>525</v>
       </c>
     </row>
@@ -15967,15 +15643,15 @@
     </row>
     <row r="161" spans="2:2" ht="15.75" customHeight="1">
       <c r="B161" s="72" t="s">
-        <v>1035</v>
+        <v>930</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="15.75" customHeight="1">
       <c r="B162" s="72"/>
     </row>
     <row r="163" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B163" s="200" t="s">
-        <v>998</v>
+      <c r="B163" s="198" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="164" spans="2:2" ht="15.75" customHeight="1">
@@ -16005,15 +15681,15 @@
     </row>
     <row r="169" spans="2:2" ht="15.75" customHeight="1">
       <c r="B169" s="72" t="s">
-        <v>1036</v>
+        <v>931</v>
       </c>
     </row>
     <row r="170" spans="2:2" ht="15.75" customHeight="1">
       <c r="B170" s="72"/>
     </row>
     <row r="171" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B171" s="200" t="s">
-        <v>999</v>
+      <c r="B171" s="198" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="172" spans="2:2" ht="15.75" customHeight="1">
@@ -16048,7 +15724,7 @@
     </row>
     <row r="178" spans="2:2" ht="15.75" customHeight="1">
       <c r="B178" s="14" t="s">
-        <v>1037</v>
+        <v>932</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="15.75" customHeight="1"/>
@@ -16874,7 +16550,7 @@
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="129" t="s">
-        <v>1001</v>
+        <v>896</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -16883,7 +16559,7 @@
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="129" t="s">
-        <v>1000</v>
+        <v>895</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -16937,7 +16613,7 @@
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
-        <v>1038</v>
+        <v>933</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="80"/>
@@ -16989,7 +16665,7 @@
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="63"/>
       <c r="B18" s="63" t="s">
-        <v>1002</v>
+        <v>897</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -17052,7 +16728,7 @@
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="30"/>
       <c r="B25" s="30" t="s">
-        <v>1038</v>
+        <v>933</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -17160,7 +16836,7 @@
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="30"/>
       <c r="B37" s="30" t="s">
-        <v>1038</v>
+        <v>933</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -17225,7 +16901,7 @@
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="63" t="s">
-        <v>1001</v>
+        <v>896</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
@@ -17270,7 +16946,7 @@
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="30"/>
       <c r="B49" s="30" t="s">
-        <v>1038</v>
+        <v>933</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -17315,7 +16991,7 @@
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="30"/>
       <c r="B54" s="130" t="s">
-        <v>1001</v>
+        <v>896</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -17396,7 +17072,7 @@
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="30" t="s">
-        <v>1039</v>
+        <v>934</v>
       </c>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
@@ -17484,7 +17160,7 @@
     <row r="73" spans="1:5" ht="15.75" customHeight="1">
       <c r="A73" s="30"/>
       <c r="B73" s="30" t="s">
-        <v>1038</v>
+        <v>933</v>
       </c>
       <c r="C73" s="30"/>
       <c r="D73" s="30"/>
@@ -17581,7 +17257,7 @@
     <row r="84" spans="1:5" ht="15.75" customHeight="1">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
-        <v>1039</v>
+        <v>934</v>
       </c>
       <c r="C84" s="30"/>
       <c r="D84" s="30"/>
@@ -17687,7 +17363,7 @@
     <row r="96" spans="1:5" ht="15.75" customHeight="1">
       <c r="A96" s="30"/>
       <c r="B96" s="30" t="s">
-        <v>1039</v>
+        <v>934</v>
       </c>
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
@@ -17784,7 +17460,7 @@
     <row r="107" spans="1:5" ht="15.75" customHeight="1">
       <c r="A107" s="30"/>
       <c r="B107" s="30" t="s">
-        <v>1039</v>
+        <v>934</v>
       </c>
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
@@ -17881,7 +17557,7 @@
     <row r="118" spans="1:6" ht="15.75" customHeight="1">
       <c r="A118" s="30"/>
       <c r="B118" s="30" t="s">
-        <v>1039</v>
+        <v>934</v>
       </c>
       <c r="C118" s="30"/>
       <c r="D118" s="30"/>
@@ -17997,7 +17673,7 @@
     <row r="130" spans="1:6" ht="15.75" customHeight="1">
       <c r="A130" s="30"/>
       <c r="B130" s="30" t="s">
-        <v>1038</v>
+        <v>933</v>
       </c>
       <c r="C130" s="30"/>
       <c r="D130" s="30"/>
@@ -18121,7 +17797,7 @@
     <row r="144" spans="1:6" ht="15.75" customHeight="1">
       <c r="A144" s="30"/>
       <c r="B144" s="30" t="s">
-        <v>1039</v>
+        <v>934</v>
       </c>
       <c r="C144" s="30"/>
       <c r="D144" s="30"/>
@@ -18218,7 +17894,7 @@
     <row r="155" spans="1:5" ht="15.75" customHeight="1">
       <c r="A155" s="30"/>
       <c r="B155" s="30" t="s">
-        <v>1039</v>
+        <v>934</v>
       </c>
       <c r="C155" s="30"/>
       <c r="D155" s="30"/>
@@ -18306,7 +17982,7 @@
     <row r="165" spans="1:5" ht="15.75" customHeight="1">
       <c r="A165" s="30"/>
       <c r="B165" s="30" t="s">
-        <v>1038</v>
+        <v>933</v>
       </c>
       <c r="C165" s="30"/>
       <c r="D165" s="30"/>
@@ -18321,7 +17997,7 @@
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1">
       <c r="A167" s="30"/>
-      <c r="B167" s="199" t="s">
+      <c r="B167" s="197" t="s">
         <v>637</v>
       </c>
       <c r="C167" s="30"/>
@@ -18376,7 +18052,7 @@
     <row r="173" spans="1:5" ht="15.75" customHeight="1">
       <c r="A173" s="30"/>
       <c r="B173" s="30" t="s">
-        <v>1040</v>
+        <v>935</v>
       </c>
       <c r="C173" s="30"/>
       <c r="D173" s="30"/>
@@ -18480,7 +18156,7 @@
     <row r="185" spans="1:5" ht="15.75" customHeight="1">
       <c r="A185" s="30"/>
       <c r="B185" s="30" t="s">
-        <v>1039</v>
+        <v>934</v>
       </c>
       <c r="C185" s="30"/>
       <c r="D185" s="30"/>
@@ -18584,7 +18260,7 @@
     <row r="197" spans="1:5" ht="15.75" customHeight="1">
       <c r="A197" s="30"/>
       <c r="B197" s="30" t="s">
-        <v>1039</v>
+        <v>934</v>
       </c>
       <c r="C197" s="30"/>
       <c r="D197" s="30"/>
@@ -18681,7 +18357,7 @@
     <row r="208" spans="1:5" ht="15.75" customHeight="1">
       <c r="A208" s="30"/>
       <c r="B208" s="30" t="s">
-        <v>1039</v>
+        <v>934</v>
       </c>
       <c r="C208" s="30"/>
       <c r="D208" s="30"/>
@@ -18754,7 +18430,7 @@
     <row r="215" spans="1:7" ht="15.75" customHeight="1">
       <c r="A215" s="14"/>
       <c r="B215" s="14" t="s">
-        <v>1038</v>
+        <v>933</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -18832,7 +18508,7 @@
     <row r="223" spans="1:7" ht="15.75" customHeight="1">
       <c r="A223" s="14"/>
       <c r="B223" s="14" t="s">
-        <v>1041</v>
+        <v>936</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -21231,7 +20907,7 @@
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="86"/>
       <c r="B6" s="121" t="s">
-        <v>1034</v>
+        <v>929</v>
       </c>
       <c r="D6" s="14"/>
     </row>
@@ -21267,7 +20943,7 @@
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="119"/>
       <c r="B12" s="3" t="s">
-        <v>1034</v>
+        <v>929</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="142"/>
@@ -21313,7 +20989,7 @@
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="119"/>
       <c r="B18" s="142" t="s">
-        <v>1042</v>
+        <v>937</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -21363,7 +21039,7 @@
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="86"/>
       <c r="B25" s="121" t="s">
-        <v>1043</v>
+        <v>938</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
@@ -21403,7 +21079,7 @@
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="86"/>
       <c r="B32" s="121" t="s">
-        <v>1028</v>
+        <v>923</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
@@ -21412,8 +21088,8 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="86"/>
-      <c r="B34" s="200" t="s">
-        <v>1012</v>
+      <c r="B34" s="198" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
@@ -21437,7 +21113,7 @@
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="86"/>
       <c r="B38" s="121" t="s">
-        <v>1003</v>
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
@@ -21477,7 +21153,7 @@
     <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="86"/>
       <c r="B45" s="86" t="s">
-        <v>1044</v>
+        <v>939</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1">
@@ -21523,7 +21199,7 @@
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="76"/>
       <c r="B53" s="76" t="s">
-        <v>1045</v>
+        <v>940</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
@@ -21593,7 +21269,7 @@
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="121"/>
       <c r="B61" s="14" t="s">
-        <v>1046</v>
+        <v>941</v>
       </c>
       <c r="D61" s="121"/>
       <c r="F61" s="145"/>
@@ -21623,7 +21299,7 @@
     <row r="66" spans="1:4" ht="15.75" customHeight="1">
       <c r="A66" s="77"/>
       <c r="B66" s="42" t="s">
-        <v>1042</v>
+        <v>937</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1">
@@ -21632,8 +21308,8 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1">
       <c r="A68" s="77"/>
-      <c r="B68" s="199" t="s">
-        <v>1004</v>
+      <c r="B68" s="197" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1">
@@ -21675,7 +21351,7 @@
     <row r="75" spans="1:4" ht="15.75" customHeight="1">
       <c r="A75" s="77"/>
       <c r="B75" s="42" t="s">
-        <v>1047</v>
+        <v>942</v>
       </c>
       <c r="D75" s="121"/>
     </row>
@@ -21686,8 +21362,8 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1">
       <c r="A77" s="77"/>
-      <c r="B77" s="199" t="s">
-        <v>1005</v>
+      <c r="B77" s="197" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1">
@@ -21736,7 +21412,7 @@
     <row r="85" spans="1:4" ht="15.75" customHeight="1">
       <c r="A85" s="147"/>
       <c r="B85" s="121" t="s">
-        <v>1048</v>
+        <v>943</v>
       </c>
       <c r="D85" s="72"/>
     </row>
@@ -21747,8 +21423,8 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1">
       <c r="A87" s="144"/>
-      <c r="B87" s="200" t="s">
-        <v>1006</v>
+      <c r="B87" s="198" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1">
@@ -21809,7 +21485,7 @@
     <row r="97" spans="1:2" ht="15.75" customHeight="1">
       <c r="A97" s="121"/>
       <c r="B97" s="121" t="s">
-        <v>1025</v>
+        <v>920</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1">
@@ -25314,10 +24990,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F998"/>
+  <dimension ref="A1:F856"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -25366,7 +25042,7 @@
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>1007</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -25435,7 +25111,7 @@
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>991</v>
+        <v>886</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
@@ -25526,915 +25202,218 @@
         <v>754</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37" s="149"/>
       <c r="B37" s="150" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B39" s="200" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D40" s="151" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D53" s="71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A65" s="1"/>
-      <c r="B65" s="152" t="s">
-        <v>782</v>
-      </c>
-      <c r="D65" s="152"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="20"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D79" s="152"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="20"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A150" s="30"/>
-      <c r="B150" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A151" s="30"/>
-      <c r="B151" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A152" s="30"/>
-      <c r="B152" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A153" s="30"/>
-      <c r="B153" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A154" s="30"/>
-      <c r="B154" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A155" s="30"/>
-      <c r="B155" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-    </row>
-    <row r="174" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-    </row>
-    <row r="176" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-    </row>
-    <row r="181" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-    </row>
-    <row r="182" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-    </row>
-    <row r="183" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-    </row>
-    <row r="184" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-    </row>
-    <row r="185" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-    </row>
-    <row r="187" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-    </row>
-    <row r="188" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-    </row>
-    <row r="189" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="190" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="191" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="192" spans="1:2" ht="15.75" customHeight="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
     <row r="193" ht="15.75" customHeight="1"/>
     <row r="194" ht="15.75" customHeight="1"/>
     <row r="195" ht="15.75" customHeight="1"/>
@@ -27099,155 +26078,12 @@
     <row r="854" ht="15.75" customHeight="1"/>
     <row r="855" ht="15.75" customHeight="1"/>
     <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B39" r:id="rId2" xr:uid="{E99ABC50-70B1-45BD-A1C7-25E68D03DB6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27258,7 +26094,7 @@
   </sheetPr>
   <dimension ref="A1:G969"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
@@ -27273,400 +26109,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="153"/>
-      <c r="B1" s="154" t="s">
-        <v>865</v>
+      <c r="A1" s="151"/>
+      <c r="B1" s="152" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="155" t="s">
-        <v>866</v>
+      <c r="B2" s="153" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="156"/>
-      <c r="B3" s="157" t="s">
-        <v>867</v>
+      <c r="A3" s="154"/>
+      <c r="B3" s="155" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="156"/>
-      <c r="B4" s="158" t="s">
-        <v>868</v>
+      <c r="A4" s="154"/>
+      <c r="B4" s="156" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="160" t="s">
-        <v>869</v>
+      <c r="A5" s="157"/>
+      <c r="B5" s="158" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="159"/>
-      <c r="B6" s="158" t="s">
-        <v>870</v>
+      <c r="A6" s="157"/>
+      <c r="B6" s="156" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="158" t="s">
-        <v>871</v>
+      <c r="A7" s="157"/>
+      <c r="B7" s="156" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="159"/>
-      <c r="B8" s="155" t="s">
-        <v>1049</v>
+      <c r="A8" s="157"/>
+      <c r="B8" s="153" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="161"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="160"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="164" t="s">
-        <v>872</v>
+      <c r="A10" s="161"/>
+      <c r="B10" s="162" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="155" t="s">
-        <v>873</v>
+      <c r="B11" s="153" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A12" s="156"/>
-      <c r="B12" s="157" t="s">
-        <v>867</v>
+      <c r="A12" s="154"/>
+      <c r="B12" s="155" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A13" s="156"/>
-      <c r="B13" s="158" t="s">
-        <v>868</v>
+      <c r="A13" s="154"/>
+      <c r="B13" s="156" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="156"/>
-      <c r="B14" s="160" t="s">
-        <v>869</v>
+      <c r="A14" s="154"/>
+      <c r="B14" s="158" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A15" s="156"/>
-      <c r="B15" s="158" t="s">
-        <v>874</v>
+      <c r="A15" s="154"/>
+      <c r="B15" s="156" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A16" s="156"/>
-      <c r="B16" s="158" t="s">
-        <v>875</v>
+      <c r="A16" s="154"/>
+      <c r="B16" s="156" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="156"/>
-      <c r="B17" s="155" t="s">
-        <v>1049</v>
+      <c r="A17" s="154"/>
+      <c r="B17" s="153" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="165"/>
-      <c r="B18" s="162"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="160"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="166"/>
-      <c r="B19" s="167" t="s">
-        <v>876</v>
+      <c r="A19" s="164"/>
+      <c r="B19" s="165" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="156" t="s">
+      <c r="A20" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="155" t="s">
-        <v>877</v>
+      <c r="B20" s="153" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="156"/>
-      <c r="B21" s="157" t="s">
-        <v>867</v>
+      <c r="A21" s="154"/>
+      <c r="B21" s="155" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="156"/>
-      <c r="B22" s="158" t="s">
-        <v>868</v>
+      <c r="A22" s="154"/>
+      <c r="B22" s="156" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="156"/>
-      <c r="B23" s="160" t="s">
-        <v>869</v>
+      <c r="A23" s="154"/>
+      <c r="B23" s="158" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="156"/>
-      <c r="B24" s="158" t="s">
-        <v>878</v>
+      <c r="A24" s="154"/>
+      <c r="B24" s="156" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="156"/>
-      <c r="B25" s="158" t="s">
-        <v>879</v>
+      <c r="A25" s="154"/>
+      <c r="B25" s="156" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="156"/>
-      <c r="B26" s="155" t="s">
-        <v>1049</v>
+      <c r="A26" s="154"/>
+      <c r="B26" s="153" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="165"/>
-      <c r="B27" s="162"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="160"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="166"/>
-      <c r="B28" s="164" t="s">
-        <v>880</v>
+      <c r="A28" s="164"/>
+      <c r="B28" s="162" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="156" t="s">
+      <c r="A29" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="155" t="s">
-        <v>881</v>
+      <c r="B29" s="153" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="157" t="s">
-        <v>867</v>
+      <c r="A30" s="154"/>
+      <c r="B30" s="155" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="156"/>
-      <c r="B31" s="158" t="s">
-        <v>868</v>
+      <c r="A31" s="154"/>
+      <c r="B31" s="156" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A32" s="168"/>
-      <c r="B32" s="160" t="s">
-        <v>869</v>
+      <c r="A32" s="166"/>
+      <c r="B32" s="158" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A33" s="168"/>
-      <c r="B33" s="158" t="s">
-        <v>882</v>
+      <c r="A33" s="166"/>
+      <c r="B33" s="156" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A34" s="168"/>
-      <c r="B34" s="158" t="s">
-        <v>883</v>
+      <c r="A34" s="166"/>
+      <c r="B34" s="156" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A35" s="169"/>
-      <c r="B35" s="155" t="s">
-        <v>1049</v>
+      <c r="A35" s="167"/>
+      <c r="B35" s="153" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A36" s="170"/>
-      <c r="B36" s="171"/>
+      <c r="A36" s="168"/>
+      <c r="B36" s="169"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A37" s="168"/>
-      <c r="B37" s="172" t="s">
-        <v>884</v>
+      <c r="A37" s="166"/>
+      <c r="B37" s="170" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21" customHeight="1">
-      <c r="A38" s="168" t="s">
+      <c r="A38" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="155" t="s">
-        <v>885</v>
+      <c r="B38" s="153" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="168"/>
-      <c r="B39" s="157" t="s">
-        <v>867</v>
+      <c r="A39" s="166"/>
+      <c r="B39" s="155" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="168"/>
-      <c r="B40" s="158" t="s">
-        <v>868</v>
+      <c r="A40" s="166"/>
+      <c r="B40" s="156" t="s">
+        <v>763</v>
       </c>
       <c r="E40" s="71" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="168"/>
-      <c r="B41" s="160" t="s">
-        <v>869</v>
+      <c r="A41" s="166"/>
+      <c r="B41" s="158" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="168"/>
-      <c r="B42" s="158" t="s">
-        <v>886</v>
+      <c r="A42" s="166"/>
+      <c r="B42" s="156" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="168"/>
-      <c r="B43" s="158" t="s">
-        <v>887</v>
+      <c r="A43" s="166"/>
+      <c r="B43" s="156" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="169"/>
-      <c r="B44" s="155" t="s">
-        <v>1049</v>
+      <c r="A44" s="167"/>
+      <c r="B44" s="153" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="168"/>
-      <c r="B45" s="155"/>
+      <c r="A45" s="166"/>
+      <c r="B45" s="153"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="173"/>
-      <c r="B46" s="174" t="s">
-        <v>888</v>
+      <c r="A46" s="171"/>
+      <c r="B46" s="172" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="168" t="s">
+      <c r="A47" s="166" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>889</v>
+        <v>784</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="175"/>
-      <c r="B48" s="155" t="s">
-        <v>867</v>
+      <c r="A48" s="173"/>
+      <c r="B48" s="153" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="175"/>
-      <c r="B49" s="158" t="s">
-        <v>868</v>
+      <c r="A49" s="173"/>
+      <c r="B49" s="156" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A50" s="175"/>
-      <c r="B50" s="176" t="s">
-        <v>869</v>
+      <c r="A50" s="173"/>
+      <c r="B50" s="174" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A51" s="175"/>
+      <c r="A51" s="173"/>
       <c r="B51" s="30" t="s">
-        <v>890</v>
+        <v>785</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A52" s="175"/>
-      <c r="B52" s="158" t="s">
-        <v>891</v>
+      <c r="A52" s="173"/>
+      <c r="B52" s="156" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A53" s="175"/>
-      <c r="B53" s="155" t="s">
-        <v>1049</v>
+      <c r="A53" s="173"/>
+      <c r="B53" s="153" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A54" s="168"/>
-      <c r="B54" s="155"/>
+      <c r="A54" s="166"/>
+      <c r="B54" s="153"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A55" s="168"/>
-      <c r="B55" s="155"/>
+      <c r="A55" s="166"/>
+      <c r="B55" s="153"/>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="85" t="s">
-        <v>892</v>
+        <v>787</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>893</v>
+        <v>788</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>894</v>
+        <v>789</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>895</v>
+        <v>790</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>896</v>
+        <v>791</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>897</v>
+        <v>792</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="85" t="s">
-        <v>869</v>
+        <v>764</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>898</v>
+        <v>793</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>899</v>
+        <v>794</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>900</v>
+        <v>795</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>1024</v>
+        <v>919</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1">
@@ -27676,19 +26512,19 @@
     <row r="68" spans="1:7" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="118" t="s">
-        <v>901</v>
+        <v>796</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>902</v>
+        <v>797</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="30" t="s">
-        <v>903</v>
+        <v>798</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -27699,50 +26535,50 @@
     <row r="71" spans="1:7" ht="15.75" customHeight="1">
       <c r="A71" s="92"/>
       <c r="B71" s="92" t="s">
-        <v>904</v>
+        <v>799</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1">
       <c r="A72" s="92"/>
       <c r="B72" s="92" t="s">
-        <v>905</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1">
       <c r="A73" s="92"/>
       <c r="B73" s="92" t="s">
-        <v>906</v>
+        <v>801</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1">
       <c r="A74" s="92"/>
       <c r="B74" s="92" t="s">
-        <v>907</v>
+        <v>802</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1">
       <c r="A75" s="92"/>
       <c r="B75" s="118" t="s">
-        <v>908</v>
+        <v>803</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1">
       <c r="A76" s="92"/>
       <c r="B76" s="92" t="s">
-        <v>1025</v>
+        <v>920</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="78" spans="1:7" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="100" t="s">
-        <v>909</v>
+        <v>804</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>910</v>
+        <v>805</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1">
@@ -27750,25 +26586,25 @@
         <v>3</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>911</v>
+        <v>806</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>912</v>
+        <v>807</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="177" t="s">
-        <v>913</v>
+      <c r="B82" s="175" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>914</v>
+        <v>809</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1">
@@ -27780,13 +26616,13 @@
     <row r="85" spans="1:2" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>915</v>
+        <v>810</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>1050</v>
+        <v>945</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1">
@@ -28712,7 +27548,7 @@
   </sheetPr>
   <dimension ref="A1:E972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
@@ -28726,81 +27562,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="178"/>
+      <c r="A1" s="176"/>
       <c r="B1" s="90" t="s">
-        <v>916</v>
+        <v>811</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="18"/>
       <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="178" t="s">
-        <v>917</v>
+      <c r="B2" s="176" t="s">
+        <v>812</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="18"/>
       <c r="E2" s="86"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178" t="s">
-        <v>918</v>
+      <c r="A3" s="176"/>
+      <c r="B3" s="176" t="s">
+        <v>813</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="86"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="178"/>
-      <c r="B4" s="179" t="s">
-        <v>919</v>
+      <c r="A4" s="176"/>
+      <c r="B4" s="177" t="s">
+        <v>814</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="86"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="178"/>
-      <c r="B5" s="179" t="s">
-        <v>1008</v>
+      <c r="A5" s="176"/>
+      <c r="B5" s="177" t="s">
+        <v>903</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="86"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="178"/>
-      <c r="B6" s="180" t="s">
-        <v>920</v>
+      <c r="A6" s="176"/>
+      <c r="B6" s="178" t="s">
+        <v>815</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="86"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="178"/>
-      <c r="B7" s="181" t="s">
-        <v>921</v>
+      <c r="A7" s="176"/>
+      <c r="B7" s="179" t="s">
+        <v>816</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="86"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="178"/>
-      <c r="B8" s="178" t="s">
-        <v>1051</v>
+      <c r="A8" s="176"/>
+      <c r="B8" s="176" t="s">
+        <v>946</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="86"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="178" t="s">
+      <c r="A9" s="176" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="14"/>
@@ -28808,214 +27644,214 @@
       <c r="E9" s="86"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="178"/>
+      <c r="A10" s="176"/>
       <c r="B10" s="81" t="s">
-        <v>922</v>
+        <v>817</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="86"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="178"/>
-      <c r="B11" s="178" t="s">
-        <v>923</v>
+      <c r="A11" s="176"/>
+      <c r="B11" s="176" t="s">
+        <v>818</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="86"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="178"/>
-      <c r="B12" s="178" t="s">
-        <v>1008</v>
+      <c r="A12" s="176"/>
+      <c r="B12" s="176" t="s">
+        <v>903</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="86"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="178"/>
-      <c r="B13" s="182" t="s">
-        <v>924</v>
+      <c r="A13" s="176"/>
+      <c r="B13" s="180" t="s">
+        <v>819</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="86"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="178"/>
-      <c r="B14" s="183" t="s">
-        <v>925</v>
+      <c r="A14" s="176"/>
+      <c r="B14" s="181" t="s">
+        <v>820</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="86"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="178"/>
-      <c r="B15" s="184" t="s">
-        <v>926</v>
+      <c r="A15" s="176"/>
+      <c r="B15" s="182" t="s">
+        <v>821</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="86"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="178"/>
-      <c r="B16" s="178" t="s">
-        <v>927</v>
+      <c r="A16" s="176"/>
+      <c r="B16" s="176" t="s">
+        <v>822</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="86"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="178"/>
-      <c r="B17" s="178" t="s">
-        <v>1051</v>
+      <c r="A17" s="176"/>
+      <c r="B17" s="176" t="s">
+        <v>946</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="86"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="178"/>
-      <c r="B18" s="178"/>
+      <c r="A18" s="176"/>
+      <c r="B18" s="176"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="86"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="178"/>
-      <c r="B19" s="178" t="s">
-        <v>928</v>
+      <c r="A19" s="176"/>
+      <c r="B19" s="176" t="s">
+        <v>823</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
       <c r="E19" s="86"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="178"/>
+      <c r="A20" s="176"/>
       <c r="B20" s="81" t="s">
-        <v>929</v>
+        <v>824</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="86"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="178"/>
-      <c r="B21" s="178" t="s">
-        <v>927</v>
+      <c r="A21" s="176"/>
+      <c r="B21" s="176" t="s">
+        <v>822</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="86"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="178"/>
-      <c r="B22" s="178" t="s">
-        <v>930</v>
+      <c r="A22" s="176"/>
+      <c r="B22" s="176" t="s">
+        <v>825</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="86"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="178"/>
-      <c r="B23" s="178" t="s">
-        <v>1008</v>
+      <c r="A23" s="176"/>
+      <c r="B23" s="176" t="s">
+        <v>903</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="86"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="178"/>
-      <c r="B24" s="185" t="s">
-        <v>931</v>
+      <c r="A24" s="176"/>
+      <c r="B24" s="183" t="s">
+        <v>826</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="86"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="178"/>
-      <c r="B25" s="178" t="s">
-        <v>932</v>
+      <c r="A25" s="176"/>
+      <c r="B25" s="176" t="s">
+        <v>827</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="86"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="178"/>
-      <c r="B26" s="178" t="s">
-        <v>1051</v>
+      <c r="A26" s="176"/>
+      <c r="B26" s="176" t="s">
+        <v>946</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="86"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="186"/>
-      <c r="B27" s="186"/>
+      <c r="A27" s="184"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="86"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="186"/>
-      <c r="B28" s="187" t="s">
-        <v>933</v>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185" t="s">
+        <v>828</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
       <c r="E28" s="86"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="186" t="s">
+      <c r="A29" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="186" t="s">
-        <v>934</v>
+      <c r="B29" s="184" t="s">
+        <v>829</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="18"/>
       <c r="E29" s="86"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="186"/>
-      <c r="B30" s="186" t="s">
-        <v>935</v>
+      <c r="A30" s="184"/>
+      <c r="B30" s="184" t="s">
+        <v>830</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="86"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186" t="s">
-        <v>936</v>
+      <c r="A31" s="184"/>
+      <c r="B31" s="184" t="s">
+        <v>831</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="86"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="186"/>
-      <c r="B32" s="186" t="s">
-        <v>927</v>
+      <c r="A32" s="184"/>
+      <c r="B32" s="184" t="s">
+        <v>822</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="86"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="186"/>
-      <c r="B33" s="178" t="s">
-        <v>1051</v>
+      <c r="A33" s="184"/>
+      <c r="B33" s="176" t="s">
+        <v>946</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -29031,7 +27867,7 @@
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="40"/>
       <c r="B35" s="89" t="s">
-        <v>937</v>
+        <v>832</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="18"/>
@@ -29041,8 +27877,8 @@
       <c r="A36" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="188" t="s">
-        <v>938</v>
+      <c r="B36" s="186" t="s">
+        <v>833</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="18"/>
@@ -29050,8 +27886,8 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="68"/>
-      <c r="B37" s="188" t="s">
-        <v>939</v>
+      <c r="B37" s="186" t="s">
+        <v>834</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="14"/>
@@ -29059,8 +27895,8 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="68"/>
-      <c r="B38" s="188" t="s">
-        <v>1008</v>
+      <c r="B38" s="186" t="s">
+        <v>903</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="14"/>
@@ -29068,8 +27904,8 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="68"/>
-      <c r="B39" s="188" t="s">
-        <v>940</v>
+      <c r="B39" s="186" t="s">
+        <v>835</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="14"/>
@@ -29080,7 +27916,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="88" t="s">
-        <v>941</v>
+        <v>836</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="14"/>
@@ -29089,7 +27925,7 @@
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="40"/>
       <c r="B41" s="40" t="s">
-        <v>942</v>
+        <v>837</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="14"/>
@@ -29098,7 +27934,7 @@
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="40"/>
       <c r="B42" s="40" t="s">
-        <v>927</v>
+        <v>822</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="14"/>
@@ -29106,314 +27942,314 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="30"/>
-      <c r="B43" s="178" t="s">
-        <v>1051</v>
+      <c r="B43" s="176" t="s">
+        <v>946</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="86"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="189"/>
-      <c r="B44" s="190"/>
+      <c r="A44" s="187"/>
+      <c r="B44" s="188"/>
       <c r="C44" s="86"/>
       <c r="D44" s="86"/>
       <c r="E44" s="86"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="189"/>
-      <c r="B45" s="191" t="s">
-        <v>943</v>
+      <c r="A45" s="187"/>
+      <c r="B45" s="189" t="s">
+        <v>838</v>
       </c>
       <c r="C45" s="86"/>
       <c r="D45" s="18"/>
       <c r="E45" s="86"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="189"/>
-      <c r="B46" s="184" t="s">
-        <v>944</v>
+      <c r="A46" s="187"/>
+      <c r="B46" s="182" t="s">
+        <v>839</v>
       </c>
       <c r="C46" s="86"/>
       <c r="D46" s="86"/>
       <c r="E46" s="86"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="189"/>
-      <c r="B47" s="181" t="s">
-        <v>945</v>
+      <c r="A47" s="187"/>
+      <c r="B47" s="179" t="s">
+        <v>840</v>
       </c>
       <c r="C47" s="86"/>
       <c r="D47" s="86"/>
       <c r="E47" s="86"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="189"/>
-      <c r="B48" s="181" t="s">
-        <v>1008</v>
+      <c r="A48" s="187"/>
+      <c r="B48" s="179" t="s">
+        <v>903</v>
       </c>
       <c r="C48" s="86"/>
       <c r="D48" s="86"/>
       <c r="E48" s="86"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="189"/>
-      <c r="B49" s="180" t="s">
-        <v>946</v>
+      <c r="A49" s="187"/>
+      <c r="B49" s="178" t="s">
+        <v>841</v>
       </c>
       <c r="C49" s="86"/>
       <c r="D49" s="86"/>
       <c r="E49" s="86"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="189"/>
-      <c r="B50" s="178" t="s">
-        <v>1051</v>
+      <c r="A50" s="187"/>
+      <c r="B50" s="176" t="s">
+        <v>946</v>
       </c>
       <c r="C50" s="86"/>
       <c r="D50" s="86"/>
       <c r="E50" s="86"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="189"/>
-      <c r="B51" s="190"/>
+      <c r="A51" s="187"/>
+      <c r="B51" s="188"/>
       <c r="C51" s="86"/>
       <c r="D51" s="86"/>
       <c r="E51" s="86"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="189"/>
+      <c r="A52" s="187"/>
       <c r="B52" s="85" t="s">
-        <v>947</v>
+        <v>842</v>
       </c>
       <c r="C52" s="86"/>
       <c r="D52" s="18"/>
       <c r="E52" s="86"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="189"/>
-      <c r="B53" s="192" t="s">
-        <v>948</v>
+      <c r="A53" s="187"/>
+      <c r="B53" s="190" t="s">
+        <v>843</v>
       </c>
       <c r="C53" s="86"/>
       <c r="D53" s="86"/>
       <c r="E53" s="86"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="189"/>
-      <c r="B54" s="192" t="s">
-        <v>1008</v>
+      <c r="A54" s="187"/>
+      <c r="B54" s="190" t="s">
+        <v>903</v>
       </c>
       <c r="C54" s="86"/>
       <c r="D54" s="86"/>
       <c r="E54" s="86"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="189"/>
-      <c r="B55" s="192" t="s">
-        <v>949</v>
+      <c r="A55" s="187"/>
+      <c r="B55" s="190" t="s">
+        <v>844</v>
       </c>
       <c r="C55" s="86"/>
       <c r="D55" s="86"/>
       <c r="E55" s="86"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="189"/>
-      <c r="B56" s="178" t="s">
-        <v>1051</v>
+      <c r="A56" s="187"/>
+      <c r="B56" s="176" t="s">
+        <v>946</v>
       </c>
       <c r="C56" s="86"/>
       <c r="D56" s="86"/>
       <c r="E56" s="86"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="189"/>
-      <c r="B57" s="189"/>
+      <c r="A57" s="187"/>
+      <c r="B57" s="187"/>
       <c r="C57" s="86"/>
       <c r="D57" s="86"/>
       <c r="E57" s="86"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="189"/>
+      <c r="A58" s="187"/>
       <c r="B58" s="85" t="s">
-        <v>950</v>
+        <v>845</v>
       </c>
       <c r="C58" s="86"/>
       <c r="D58" s="86"/>
       <c r="E58" s="86"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="189"/>
-      <c r="B59" s="189" t="s">
-        <v>951</v>
+      <c r="A59" s="187"/>
+      <c r="B59" s="187" t="s">
+        <v>846</v>
       </c>
       <c r="C59" s="86"/>
       <c r="D59" s="86"/>
       <c r="E59" s="86"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="189"/>
-      <c r="B60" s="189" t="s">
-        <v>952</v>
+      <c r="A60" s="187"/>
+      <c r="B60" s="187" t="s">
+        <v>847</v>
       </c>
       <c r="C60" s="86"/>
-      <c r="D60" s="193"/>
+      <c r="D60" s="191"/>
       <c r="E60" s="86"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="189"/>
-      <c r="B61" s="189" t="s">
-        <v>953</v>
+      <c r="A61" s="187"/>
+      <c r="B61" s="187" t="s">
+        <v>848</v>
       </c>
       <c r="C61" s="86"/>
-      <c r="D61" s="194"/>
+      <c r="D61" s="192"/>
       <c r="E61" s="86"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62" s="189"/>
-      <c r="B62" s="178" t="s">
-        <v>1052</v>
+      <c r="A62" s="187"/>
+      <c r="B62" s="176" t="s">
+        <v>947</v>
       </c>
       <c r="C62" s="86"/>
       <c r="E62" s="86"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63" s="189"/>
-      <c r="B63" s="189"/>
+      <c r="A63" s="187"/>
+      <c r="B63" s="187"/>
       <c r="C63" s="86"/>
       <c r="D63" s="86"/>
       <c r="E63" s="86"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A64" s="189"/>
+      <c r="A64" s="187"/>
       <c r="B64" s="85" t="s">
-        <v>954</v>
+        <v>849</v>
       </c>
       <c r="C64" s="86"/>
       <c r="D64" s="86"/>
       <c r="E64" s="86"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A65" s="189"/>
-      <c r="B65" s="192" t="s">
-        <v>955</v>
+      <c r="A65" s="187"/>
+      <c r="B65" s="190" t="s">
+        <v>850</v>
       </c>
       <c r="C65" s="86"/>
       <c r="D65" s="86"/>
       <c r="E65" s="86"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66" s="189"/>
-      <c r="B66" s="178" t="s">
-        <v>956</v>
+      <c r="A66" s="187"/>
+      <c r="B66" s="176" t="s">
+        <v>851</v>
       </c>
       <c r="C66" s="86"/>
       <c r="D66" s="86"/>
       <c r="E66" s="86"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67" s="189"/>
-      <c r="B67" s="178" t="s">
-        <v>1051</v>
+      <c r="A67" s="187"/>
+      <c r="B67" s="176" t="s">
+        <v>946</v>
       </c>
       <c r="C67" s="86"/>
       <c r="D67" s="86"/>
       <c r="E67" s="86"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68" s="189"/>
-      <c r="B68" s="189"/>
+      <c r="A68" s="187"/>
+      <c r="B68" s="187"/>
       <c r="C68" s="86"/>
       <c r="D68" s="86"/>
       <c r="E68" s="86"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A69" s="189"/>
+      <c r="A69" s="187"/>
       <c r="B69" s="85" t="s">
-        <v>957</v>
+        <v>852</v>
       </c>
       <c r="C69" s="86"/>
       <c r="D69" s="86"/>
       <c r="E69" s="86"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A70" s="189" t="s">
+      <c r="A70" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="189" t="s">
-        <v>958</v>
+      <c r="B70" s="187" t="s">
+        <v>853</v>
       </c>
       <c r="C70" s="86"/>
       <c r="D70" s="86"/>
       <c r="E70" s="86"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A71" s="189"/>
-      <c r="B71" s="195" t="s">
-        <v>959</v>
+      <c r="A71" s="187"/>
+      <c r="B71" s="193" t="s">
+        <v>854</v>
       </c>
       <c r="C71" s="86"/>
       <c r="D71" s="86"/>
       <c r="E71" s="86"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A72" s="189"/>
-      <c r="B72" s="196" t="s">
-        <v>960</v>
+      <c r="A72" s="187"/>
+      <c r="B72" s="194" t="s">
+        <v>855</v>
       </c>
       <c r="C72" s="86"/>
       <c r="D72" s="86"/>
       <c r="E72" s="86"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A73" s="189"/>
-      <c r="B73" s="178" t="s">
-        <v>1051</v>
+      <c r="A73" s="187"/>
+      <c r="B73" s="176" t="s">
+        <v>946</v>
       </c>
       <c r="C73" s="86"/>
       <c r="D73" s="86"/>
       <c r="E73" s="86"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A74" s="189"/>
-      <c r="B74" s="189"/>
+      <c r="A74" s="187"/>
+      <c r="B74" s="187"/>
       <c r="C74" s="86"/>
       <c r="D74" s="86"/>
       <c r="E74" s="86"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
-      <c r="B75" s="197" t="s">
-        <v>961</v>
+      <c r="B75" s="195" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>962</v>
+        <v>857</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>963</v>
+        <v>858</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>964</v>
+        <v>859</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B79" s="178" t="s">
-        <v>1051</v>
+      <c r="B79" s="176" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1">
       <c r="A80" s="60"/>
       <c r="B80" s="40"/>
-      <c r="C80" s="198"/>
+      <c r="C80" s="196"/>
       <c r="D80" s="30"/>
       <c r="E80" s="62"/>
     </row>
@@ -29427,7 +28263,7 @@
     <row r="82" spans="1:5" ht="15.75" customHeight="1">
       <c r="A82" s="82"/>
       <c r="B82" s="83" t="s">
-        <v>965</v>
+        <v>860</v>
       </c>
       <c r="C82" s="43"/>
       <c r="D82" s="1"/>
@@ -29436,7 +28272,7 @@
     <row r="83" spans="1:5" ht="15.75" customHeight="1">
       <c r="A83" s="82"/>
       <c r="B83" s="4" t="s">
-        <v>1053</v>
+        <v>948</v>
       </c>
       <c r="C83" s="43"/>
       <c r="D83" s="1"/>
@@ -29448,57 +28284,57 @@
     <row r="87" spans="1:5" ht="15.75" customHeight="1">
       <c r="A87" s="72"/>
       <c r="B87" s="93" t="s">
-        <v>966</v>
+        <v>861</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1">
       <c r="B88" s="37" t="s">
-        <v>967</v>
+        <v>862</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1">
       <c r="B89" s="37" t="s">
-        <v>968</v>
+        <v>863</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1">
       <c r="B90" s="37" t="s">
-        <v>969</v>
+        <v>864</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1">
       <c r="B91" s="37" t="s">
-        <v>970</v>
+        <v>865</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1">
       <c r="B92" s="37" t="s">
-        <v>971</v>
+        <v>866</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1">
       <c r="B93" s="37" t="s">
-        <v>972</v>
+        <v>867</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1">
       <c r="B94" s="37" t="s">
-        <v>973</v>
+        <v>868</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1">
       <c r="B95" s="37" t="s">
-        <v>974</v>
+        <v>869</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1">
       <c r="B96" s="93" t="s">
-        <v>975</v>
+        <v>870</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="15.75" customHeight="1">
       <c r="B97" s="37" t="s">
-        <v>1054</v>
+        <v>949</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="15.75" customHeight="1">
@@ -29506,52 +28342,52 @@
     </row>
     <row r="99" spans="2:2" ht="15.75" customHeight="1">
       <c r="B99" s="93" t="s">
-        <v>976</v>
+        <v>871</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="15.75" customHeight="1">
       <c r="B100" s="37" t="s">
-        <v>977</v>
+        <v>872</v>
       </c>
     </row>
     <row r="101" spans="2:2" ht="15.75" customHeight="1">
       <c r="B101" s="37" t="s">
-        <v>935</v>
+        <v>830</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="15.75" customHeight="1">
       <c r="B102" s="37" t="s">
-        <v>978</v>
+        <v>873</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="15.75" customHeight="1">
       <c r="B103" s="37" t="s">
-        <v>979</v>
+        <v>874</v>
       </c>
     </row>
     <row r="104" spans="2:2" ht="15.75" customHeight="1">
       <c r="B104" s="37" t="s">
-        <v>980</v>
+        <v>875</v>
       </c>
     </row>
     <row r="105" spans="2:2" ht="15.75" customHeight="1">
       <c r="B105" s="37" t="s">
-        <v>981</v>
+        <v>876</v>
       </c>
     </row>
     <row r="106" spans="2:2" ht="15.75" customHeight="1">
       <c r="B106" s="37" t="s">
-        <v>982</v>
+        <v>877</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="15.75" customHeight="1">
       <c r="B107" s="37" t="s">
-        <v>983</v>
+        <v>878</v>
       </c>
     </row>
     <row r="108" spans="2:2" ht="15.75" customHeight="1">
       <c r="B108" s="37" t="s">
-        <v>1052</v>
+        <v>947</v>
       </c>
     </row>
     <row r="109" spans="2:2" ht="15.75" customHeight="1"/>
